--- a/Mẫu_biên_bản_làm_việc_nhóm1.xlsx
+++ b/Mẫu_biên_bản_làm_việc_nhóm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTCSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2633157-2B3E-4BAE-8D03-231A242B6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F3569-FF45-4E93-8D36-B489F2F369A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FD97A212-27C1-43AE-A978-E71B9FAE1963}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Làm đề cương cho đề tài</t>
+  </si>
+  <si>
+    <t>Thành viên tham dự - Participants :  Đinh Quốc Anh, Hoàng Minh Ánh, Nguyễn Thế Anh, Nguyễn Xuân Anh.Hi</t>
   </si>
 </sst>
 </file>
@@ -488,25 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,8 +503,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -539,33 +561,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -897,14 +900,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -927,14 +930,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -957,14 +960,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -987,14 +990,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1017,14 +1020,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1047,14 +1050,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1261,14 +1264,14 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1303,10 +1306,10 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1344,7 +1347,7 @@
       <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1379,10 +1382,10 @@
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1417,10 +1420,10 @@
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1443,22 +1446,22 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+      <c r="A17" s="22">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1481,12 +1484,12 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1509,12 +1512,12 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1537,14 +1540,14 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1759,14 +1762,14 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -28216,6 +28219,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A20:F20"/>
@@ -28228,12 +28237,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:F19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28242,13 +28245,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A16F2E-359E-484A-BC3B-47812D1B245E}">
-  <dimension ref="A1:Z969"/>
+  <dimension ref="A1:Z964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="54.44140625" style="3" customWidth="1"/>
@@ -28258,15 +28261,15 @@
     <col min="27" max="16384" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -28288,15 +28291,15 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -28318,15 +28321,15 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -28348,15 +28351,15 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -28378,15 +28381,15 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -28408,15 +28411,15 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>41</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>49</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -28478,7 +28481,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -28514,7 +28517,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -28550,7 +28553,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -28586,7 +28589,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -28622,15 +28625,15 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -28665,10 +28668,10 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -28690,7 +28693,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -28704,7 +28707,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -28726,15 +28729,15 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -28796,7 +28799,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -28834,7 +28837,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -28872,7 +28875,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -28910,7 +28913,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -28948,15 +28951,15 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -28978,7 +28981,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -29016,7 +29019,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -29054,7 +29057,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -29110,7 +29113,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -29138,7 +29141,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -29166,7 +29169,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -29194,7 +29197,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -29222,7 +29225,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -29250,7 +29253,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -29278,7 +29281,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -29306,7 +29309,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -29334,7 +29337,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -29362,7 +29365,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -29390,7 +29393,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -29418,7 +29421,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -29446,7 +29449,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -29474,7 +29477,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -29502,7 +29505,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -29530,7 +29533,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -29558,7 +29561,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -29586,7 +29589,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -29614,7 +29617,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -29642,7 +29645,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -29670,7 +29673,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -29698,7 +29701,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -29726,7 +29729,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -29754,7 +29757,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -29782,7 +29785,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -29810,7 +29813,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -29838,7 +29841,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -29866,7 +29869,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -29894,7 +29897,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -29922,7 +29925,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -29950,7 +29953,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -29978,7 +29981,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -30006,7 +30009,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -30034,7 +30037,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -30062,7 +30065,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -30090,7 +30093,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -30118,7 +30121,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -30146,7 +30149,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -30174,7 +30177,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -30202,7 +30205,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -30230,7 +30233,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -30258,7 +30261,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -30286,7 +30289,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -30314,7 +30317,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -30342,7 +30345,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -30370,7 +30373,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -30398,7 +30401,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -30426,7 +30429,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -30454,7 +30457,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -30482,7 +30485,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -30510,7 +30513,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -30538,7 +30541,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -30566,7 +30569,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -30594,7 +30597,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -30622,7 +30625,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -30650,7 +30653,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -30678,7 +30681,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>38</v>
       </c>
@@ -30708,7 +30711,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -30736,7 +30739,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -30764,7 +30767,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -30792,7 +30795,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -30820,7 +30823,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -30848,7 +30851,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -30876,7 +30879,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -30904,7 +30907,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -30932,7 +30935,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -30960,7 +30963,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -30988,7 +30991,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -31016,7 +31019,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -31044,7 +31047,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -31072,7 +31075,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -31100,7 +31103,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -31128,7 +31131,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -31156,7 +31159,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -31184,7 +31187,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -31212,7 +31215,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -31240,7 +31243,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -31268,7 +31271,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -31296,7 +31299,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -31324,7 +31327,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -31352,7 +31355,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -31380,7 +31383,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -31408,7 +31411,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -31436,7 +31439,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -31464,7 +31467,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -31492,7 +31495,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -31520,7 +31523,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -31548,7 +31551,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -31576,7 +31579,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -31604,7 +31607,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -31632,7 +31635,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -31660,7 +31663,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -31688,7 +31691,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -31716,7 +31719,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -31744,7 +31747,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -31772,7 +31775,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -31800,7 +31803,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -31828,7 +31831,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -31856,7 +31859,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -31884,7 +31887,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -31912,7 +31915,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -31940,7 +31943,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -31968,7 +31971,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -31996,7 +31999,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -32024,7 +32027,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -32052,7 +32055,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -32080,7 +32083,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -32108,7 +32111,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -32136,7 +32139,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -32164,7 +32167,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -32192,7 +32195,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -32220,7 +32223,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -32248,7 +32251,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -32276,7 +32279,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -32304,7 +32307,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -32332,7 +32335,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -32360,7 +32363,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -32388,7 +32391,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -32416,7 +32419,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -32444,7 +32447,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -32472,7 +32475,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -32500,7 +32503,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -32528,7 +32531,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -32556,7 +32559,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -32584,7 +32587,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -32612,7 +32615,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -32640,7 +32643,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -32668,7 +32671,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -32696,7 +32699,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -32724,7 +32727,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -32752,7 +32755,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -32780,7 +32783,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -32808,7 +32811,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -32836,7 +32839,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -32864,7 +32867,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -32892,7 +32895,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -32920,7 +32923,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -32948,7 +32951,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -32976,7 +32979,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -33004,7 +33007,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -33032,7 +33035,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -33060,7 +33063,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -33088,7 +33091,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -33116,7 +33119,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -33144,7 +33147,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -33172,7 +33175,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -33200,7 +33203,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -33228,7 +33231,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -33256,7 +33259,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -33284,7 +33287,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -33312,7 +33315,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -33340,7 +33343,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -33368,7 +33371,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -33396,7 +33399,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -33424,7 +33427,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -33452,7 +33455,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -33480,7 +33483,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -33508,7 +33511,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -33536,7 +33539,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -33564,7 +33567,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -33592,7 +33595,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -33620,7 +33623,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -33648,7 +33651,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -33676,7 +33679,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -33704,7 +33707,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -33732,7 +33735,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -33760,7 +33763,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -33788,7 +33791,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -33816,7 +33819,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -33844,7 +33847,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -33872,7 +33875,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -33900,7 +33903,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -33928,7 +33931,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -33956,7 +33959,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -33984,7 +33987,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -34012,7 +34015,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -34040,7 +34043,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -34068,7 +34071,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -34096,7 +34099,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -34124,7 +34127,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -34152,7 +34155,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -34180,7 +34183,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -34208,7 +34211,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -34236,7 +34239,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -34264,7 +34267,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -34292,7 +34295,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -34320,7 +34323,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -34348,7 +34351,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -34376,7 +34379,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -34404,7 +34407,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -34432,7 +34435,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -34460,7 +34463,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -34488,7 +34491,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -34516,7 +34519,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -34544,7 +34547,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -34572,7 +34575,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -34600,7 +34603,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -34628,7 +34631,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -34656,7 +34659,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -34684,7 +34687,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -34712,7 +34715,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -34740,7 +34743,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -34768,7 +34771,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -34796,7 +34799,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -34824,7 +34827,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -34852,7 +34855,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -34880,7 +34883,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -34908,7 +34911,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -34936,7 +34939,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -34964,7 +34967,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -34992,7 +34995,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -35020,7 +35023,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -35048,7 +35051,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -35076,7 +35079,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -35104,7 +35107,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -35132,7 +35135,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -35160,7 +35163,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -35188,7 +35191,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -35216,7 +35219,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -35244,7 +35247,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -35272,7 +35275,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -35300,7 +35303,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -35328,7 +35331,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -35356,7 +35359,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -35384,7 +35387,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -35412,7 +35415,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -35440,7 +35443,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -35468,7 +35471,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -35496,7 +35499,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -35524,7 +35527,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -35552,7 +35555,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -35580,7 +35583,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -35608,7 +35611,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -35636,7 +35639,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -35664,7 +35667,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -35692,7 +35695,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -35720,7 +35723,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -35748,7 +35751,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -35776,7 +35779,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -35804,7 +35807,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -35832,7 +35835,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -35860,7 +35863,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -35888,7 +35891,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -35916,7 +35919,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -35944,7 +35947,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -35972,7 +35975,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -36000,7 +36003,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -36028,7 +36031,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -36056,7 +36059,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -36084,7 +36087,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -36112,7 +36115,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -36140,7 +36143,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -36168,7 +36171,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -36196,7 +36199,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -36224,7 +36227,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -36252,7 +36255,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -36280,7 +36283,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -36308,7 +36311,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -36336,7 +36339,7 @@
       <c r="Y283" s="12"/>
       <c r="Z283" s="12"/>
     </row>
-    <row r="284" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -36364,7 +36367,7 @@
       <c r="Y284" s="12"/>
       <c r="Z284" s="12"/>
     </row>
-    <row r="285" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -36392,7 +36395,7 @@
       <c r="Y285" s="12"/>
       <c r="Z285" s="12"/>
     </row>
-    <row r="286" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -36420,7 +36423,7 @@
       <c r="Y286" s="12"/>
       <c r="Z286" s="12"/>
     </row>
-    <row r="287" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -36448,7 +36451,7 @@
       <c r="Y287" s="12"/>
       <c r="Z287" s="12"/>
     </row>
-    <row r="288" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -36476,7 +36479,7 @@
       <c r="Y288" s="12"/>
       <c r="Z288" s="12"/>
     </row>
-    <row r="289" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -36504,7 +36507,7 @@
       <c r="Y289" s="12"/>
       <c r="Z289" s="12"/>
     </row>
-    <row r="290" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -36532,7 +36535,7 @@
       <c r="Y290" s="12"/>
       <c r="Z290" s="12"/>
     </row>
-    <row r="291" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -36560,7 +36563,7 @@
       <c r="Y291" s="12"/>
       <c r="Z291" s="12"/>
     </row>
-    <row r="292" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -36588,7 +36591,7 @@
       <c r="Y292" s="12"/>
       <c r="Z292" s="12"/>
     </row>
-    <row r="293" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -36616,7 +36619,7 @@
       <c r="Y293" s="12"/>
       <c r="Z293" s="12"/>
     </row>
-    <row r="294" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -36644,7 +36647,7 @@
       <c r="Y294" s="12"/>
       <c r="Z294" s="12"/>
     </row>
-    <row r="295" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -36672,7 +36675,7 @@
       <c r="Y295" s="12"/>
       <c r="Z295" s="12"/>
     </row>
-    <row r="296" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -36700,7 +36703,7 @@
       <c r="Y296" s="12"/>
       <c r="Z296" s="12"/>
     </row>
-    <row r="297" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -36728,7 +36731,7 @@
       <c r="Y297" s="12"/>
       <c r="Z297" s="12"/>
     </row>
-    <row r="298" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -36756,7 +36759,7 @@
       <c r="Y298" s="12"/>
       <c r="Z298" s="12"/>
     </row>
-    <row r="299" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -36784,7 +36787,7 @@
       <c r="Y299" s="12"/>
       <c r="Z299" s="12"/>
     </row>
-    <row r="300" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -36812,7 +36815,7 @@
       <c r="Y300" s="12"/>
       <c r="Z300" s="12"/>
     </row>
-    <row r="301" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -36840,7 +36843,7 @@
       <c r="Y301" s="12"/>
       <c r="Z301" s="12"/>
     </row>
-    <row r="302" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -36868,7 +36871,7 @@
       <c r="Y302" s="12"/>
       <c r="Z302" s="12"/>
     </row>
-    <row r="303" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -36896,7 +36899,7 @@
       <c r="Y303" s="12"/>
       <c r="Z303" s="12"/>
     </row>
-    <row r="304" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -36924,7 +36927,7 @@
       <c r="Y304" s="12"/>
       <c r="Z304" s="12"/>
     </row>
-    <row r="305" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -36952,7 +36955,7 @@
       <c r="Y305" s="12"/>
       <c r="Z305" s="12"/>
     </row>
-    <row r="306" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -36980,7 +36983,7 @@
       <c r="Y306" s="12"/>
       <c r="Z306" s="12"/>
     </row>
-    <row r="307" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -37008,7 +37011,7 @@
       <c r="Y307" s="12"/>
       <c r="Z307" s="12"/>
     </row>
-    <row r="308" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -37036,7 +37039,7 @@
       <c r="Y308" s="12"/>
       <c r="Z308" s="12"/>
     </row>
-    <row r="309" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -37064,7 +37067,7 @@
       <c r="Y309" s="12"/>
       <c r="Z309" s="12"/>
     </row>
-    <row r="310" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -37092,7 +37095,7 @@
       <c r="Y310" s="12"/>
       <c r="Z310" s="12"/>
     </row>
-    <row r="311" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -37120,7 +37123,7 @@
       <c r="Y311" s="12"/>
       <c r="Z311" s="12"/>
     </row>
-    <row r="312" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -37148,7 +37151,7 @@
       <c r="Y312" s="12"/>
       <c r="Z312" s="12"/>
     </row>
-    <row r="313" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -37176,7 +37179,7 @@
       <c r="Y313" s="12"/>
       <c r="Z313" s="12"/>
     </row>
-    <row r="314" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -37204,7 +37207,7 @@
       <c r="Y314" s="12"/>
       <c r="Z314" s="12"/>
     </row>
-    <row r="315" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -37232,7 +37235,7 @@
       <c r="Y315" s="12"/>
       <c r="Z315" s="12"/>
     </row>
-    <row r="316" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -37260,7 +37263,7 @@
       <c r="Y316" s="12"/>
       <c r="Z316" s="12"/>
     </row>
-    <row r="317" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -37288,7 +37291,7 @@
       <c r="Y317" s="12"/>
       <c r="Z317" s="12"/>
     </row>
-    <row r="318" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -37316,7 +37319,7 @@
       <c r="Y318" s="12"/>
       <c r="Z318" s="12"/>
     </row>
-    <row r="319" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -37344,7 +37347,7 @@
       <c r="Y319" s="12"/>
       <c r="Z319" s="12"/>
     </row>
-    <row r="320" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -37372,7 +37375,7 @@
       <c r="Y320" s="12"/>
       <c r="Z320" s="12"/>
     </row>
-    <row r="321" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -37400,7 +37403,7 @@
       <c r="Y321" s="12"/>
       <c r="Z321" s="12"/>
     </row>
-    <row r="322" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -37428,7 +37431,7 @@
       <c r="Y322" s="12"/>
       <c r="Z322" s="12"/>
     </row>
-    <row r="323" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -37456,7 +37459,7 @@
       <c r="Y323" s="12"/>
       <c r="Z323" s="12"/>
     </row>
-    <row r="324" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -37484,7 +37487,7 @@
       <c r="Y324" s="12"/>
       <c r="Z324" s="12"/>
     </row>
-    <row r="325" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -37512,7 +37515,7 @@
       <c r="Y325" s="12"/>
       <c r="Z325" s="12"/>
     </row>
-    <row r="326" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -37540,7 +37543,7 @@
       <c r="Y326" s="12"/>
       <c r="Z326" s="12"/>
     </row>
-    <row r="327" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -37568,7 +37571,7 @@
       <c r="Y327" s="12"/>
       <c r="Z327" s="12"/>
     </row>
-    <row r="328" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -37596,7 +37599,7 @@
       <c r="Y328" s="12"/>
       <c r="Z328" s="12"/>
     </row>
-    <row r="329" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -37624,7 +37627,7 @@
       <c r="Y329" s="12"/>
       <c r="Z329" s="12"/>
     </row>
-    <row r="330" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -37652,7 +37655,7 @@
       <c r="Y330" s="12"/>
       <c r="Z330" s="12"/>
     </row>
-    <row r="331" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -37680,7 +37683,7 @@
       <c r="Y331" s="12"/>
       <c r="Z331" s="12"/>
     </row>
-    <row r="332" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -37708,7 +37711,7 @@
       <c r="Y332" s="12"/>
       <c r="Z332" s="12"/>
     </row>
-    <row r="333" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -37736,7 +37739,7 @@
       <c r="Y333" s="12"/>
       <c r="Z333" s="12"/>
     </row>
-    <row r="334" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -37764,7 +37767,7 @@
       <c r="Y334" s="12"/>
       <c r="Z334" s="12"/>
     </row>
-    <row r="335" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -37792,7 +37795,7 @@
       <c r="Y335" s="12"/>
       <c r="Z335" s="12"/>
     </row>
-    <row r="336" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -37820,7 +37823,7 @@
       <c r="Y336" s="12"/>
       <c r="Z336" s="12"/>
     </row>
-    <row r="337" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -37848,7 +37851,7 @@
       <c r="Y337" s="12"/>
       <c r="Z337" s="12"/>
     </row>
-    <row r="338" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -37876,7 +37879,7 @@
       <c r="Y338" s="12"/>
       <c r="Z338" s="12"/>
     </row>
-    <row r="339" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -37904,7 +37907,7 @@
       <c r="Y339" s="12"/>
       <c r="Z339" s="12"/>
     </row>
-    <row r="340" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -37932,7 +37935,7 @@
       <c r="Y340" s="12"/>
       <c r="Z340" s="12"/>
     </row>
-    <row r="341" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -37960,7 +37963,7 @@
       <c r="Y341" s="12"/>
       <c r="Z341" s="12"/>
     </row>
-    <row r="342" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -37988,7 +37991,7 @@
       <c r="Y342" s="12"/>
       <c r="Z342" s="12"/>
     </row>
-    <row r="343" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -38016,7 +38019,7 @@
       <c r="Y343" s="12"/>
       <c r="Z343" s="12"/>
     </row>
-    <row r="344" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -38044,7 +38047,7 @@
       <c r="Y344" s="12"/>
       <c r="Z344" s="12"/>
     </row>
-    <row r="345" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -38072,7 +38075,7 @@
       <c r="Y345" s="12"/>
       <c r="Z345" s="12"/>
     </row>
-    <row r="346" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -38100,7 +38103,7 @@
       <c r="Y346" s="12"/>
       <c r="Z346" s="12"/>
     </row>
-    <row r="347" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -38128,7 +38131,7 @@
       <c r="Y347" s="12"/>
       <c r="Z347" s="12"/>
     </row>
-    <row r="348" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -38156,7 +38159,7 @@
       <c r="Y348" s="12"/>
       <c r="Z348" s="12"/>
     </row>
-    <row r="349" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -38184,7 +38187,7 @@
       <c r="Y349" s="12"/>
       <c r="Z349" s="12"/>
     </row>
-    <row r="350" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -38212,7 +38215,7 @@
       <c r="Y350" s="12"/>
       <c r="Z350" s="12"/>
     </row>
-    <row r="351" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -38240,7 +38243,7 @@
       <c r="Y351" s="12"/>
       <c r="Z351" s="12"/>
     </row>
-    <row r="352" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -38268,7 +38271,7 @@
       <c r="Y352" s="12"/>
       <c r="Z352" s="12"/>
     </row>
-    <row r="353" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -38296,7 +38299,7 @@
       <c r="Y353" s="12"/>
       <c r="Z353" s="12"/>
     </row>
-    <row r="354" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -38324,7 +38327,7 @@
       <c r="Y354" s="12"/>
       <c r="Z354" s="12"/>
     </row>
-    <row r="355" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -38352,7 +38355,7 @@
       <c r="Y355" s="12"/>
       <c r="Z355" s="12"/>
     </row>
-    <row r="356" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -38380,7 +38383,7 @@
       <c r="Y356" s="12"/>
       <c r="Z356" s="12"/>
     </row>
-    <row r="357" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -38408,7 +38411,7 @@
       <c r="Y357" s="12"/>
       <c r="Z357" s="12"/>
     </row>
-    <row r="358" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -38436,7 +38439,7 @@
       <c r="Y358" s="12"/>
       <c r="Z358" s="12"/>
     </row>
-    <row r="359" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -38464,7 +38467,7 @@
       <c r="Y359" s="12"/>
       <c r="Z359" s="12"/>
     </row>
-    <row r="360" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -38492,7 +38495,7 @@
       <c r="Y360" s="12"/>
       <c r="Z360" s="12"/>
     </row>
-    <row r="361" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -38520,7 +38523,7 @@
       <c r="Y361" s="12"/>
       <c r="Z361" s="12"/>
     </row>
-    <row r="362" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -38548,7 +38551,7 @@
       <c r="Y362" s="12"/>
       <c r="Z362" s="12"/>
     </row>
-    <row r="363" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -38576,7 +38579,7 @@
       <c r="Y363" s="12"/>
       <c r="Z363" s="12"/>
     </row>
-    <row r="364" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -38604,7 +38607,7 @@
       <c r="Y364" s="12"/>
       <c r="Z364" s="12"/>
     </row>
-    <row r="365" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -38632,7 +38635,7 @@
       <c r="Y365" s="12"/>
       <c r="Z365" s="12"/>
     </row>
-    <row r="366" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -38660,7 +38663,7 @@
       <c r="Y366" s="12"/>
       <c r="Z366" s="12"/>
     </row>
-    <row r="367" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -38688,7 +38691,7 @@
       <c r="Y367" s="12"/>
       <c r="Z367" s="12"/>
     </row>
-    <row r="368" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -38716,7 +38719,7 @@
       <c r="Y368" s="12"/>
       <c r="Z368" s="12"/>
     </row>
-    <row r="369" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -38744,7 +38747,7 @@
       <c r="Y369" s="12"/>
       <c r="Z369" s="12"/>
     </row>
-    <row r="370" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -38772,7 +38775,7 @@
       <c r="Y370" s="12"/>
       <c r="Z370" s="12"/>
     </row>
-    <row r="371" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -38800,7 +38803,7 @@
       <c r="Y371" s="12"/>
       <c r="Z371" s="12"/>
     </row>
-    <row r="372" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -38828,7 +38831,7 @@
       <c r="Y372" s="12"/>
       <c r="Z372" s="12"/>
     </row>
-    <row r="373" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -38856,7 +38859,7 @@
       <c r="Y373" s="12"/>
       <c r="Z373" s="12"/>
     </row>
-    <row r="374" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -38884,7 +38887,7 @@
       <c r="Y374" s="12"/>
       <c r="Z374" s="12"/>
     </row>
-    <row r="375" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -38912,7 +38915,7 @@
       <c r="Y375" s="12"/>
       <c r="Z375" s="12"/>
     </row>
-    <row r="376" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -38940,7 +38943,7 @@
       <c r="Y376" s="12"/>
       <c r="Z376" s="12"/>
     </row>
-    <row r="377" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -38968,7 +38971,7 @@
       <c r="Y377" s="12"/>
       <c r="Z377" s="12"/>
     </row>
-    <row r="378" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -38996,7 +38999,7 @@
       <c r="Y378" s="12"/>
       <c r="Z378" s="12"/>
     </row>
-    <row r="379" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -39024,7 +39027,7 @@
       <c r="Y379" s="12"/>
       <c r="Z379" s="12"/>
     </row>
-    <row r="380" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -39052,7 +39055,7 @@
       <c r="Y380" s="12"/>
       <c r="Z380" s="12"/>
     </row>
-    <row r="381" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -39080,7 +39083,7 @@
       <c r="Y381" s="12"/>
       <c r="Z381" s="12"/>
     </row>
-    <row r="382" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -39108,7 +39111,7 @@
       <c r="Y382" s="12"/>
       <c r="Z382" s="12"/>
     </row>
-    <row r="383" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -39136,7 +39139,7 @@
       <c r="Y383" s="12"/>
       <c r="Z383" s="12"/>
     </row>
-    <row r="384" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -39164,7 +39167,7 @@
       <c r="Y384" s="12"/>
       <c r="Z384" s="12"/>
     </row>
-    <row r="385" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -39192,7 +39195,7 @@
       <c r="Y385" s="12"/>
       <c r="Z385" s="12"/>
     </row>
-    <row r="386" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -39220,7 +39223,7 @@
       <c r="Y386" s="12"/>
       <c r="Z386" s="12"/>
     </row>
-    <row r="387" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -39248,7 +39251,7 @@
       <c r="Y387" s="12"/>
       <c r="Z387" s="12"/>
     </row>
-    <row r="388" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -39276,7 +39279,7 @@
       <c r="Y388" s="12"/>
       <c r="Z388" s="12"/>
     </row>
-    <row r="389" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -39304,7 +39307,7 @@
       <c r="Y389" s="12"/>
       <c r="Z389" s="12"/>
     </row>
-    <row r="390" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -39332,7 +39335,7 @@
       <c r="Y390" s="12"/>
       <c r="Z390" s="12"/>
     </row>
-    <row r="391" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -39360,7 +39363,7 @@
       <c r="Y391" s="12"/>
       <c r="Z391" s="12"/>
     </row>
-    <row r="392" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -39388,7 +39391,7 @@
       <c r="Y392" s="12"/>
       <c r="Z392" s="12"/>
     </row>
-    <row r="393" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -39416,7 +39419,7 @@
       <c r="Y393" s="12"/>
       <c r="Z393" s="12"/>
     </row>
-    <row r="394" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -39444,7 +39447,7 @@
       <c r="Y394" s="12"/>
       <c r="Z394" s="12"/>
     </row>
-    <row r="395" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -39472,7 +39475,7 @@
       <c r="Y395" s="12"/>
       <c r="Z395" s="12"/>
     </row>
-    <row r="396" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -39500,7 +39503,7 @@
       <c r="Y396" s="12"/>
       <c r="Z396" s="12"/>
     </row>
-    <row r="397" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -39528,7 +39531,7 @@
       <c r="Y397" s="12"/>
       <c r="Z397" s="12"/>
     </row>
-    <row r="398" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -39556,7 +39559,7 @@
       <c r="Y398" s="12"/>
       <c r="Z398" s="12"/>
     </row>
-    <row r="399" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -39584,7 +39587,7 @@
       <c r="Y399" s="12"/>
       <c r="Z399" s="12"/>
     </row>
-    <row r="400" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -39612,7 +39615,7 @@
       <c r="Y400" s="12"/>
       <c r="Z400" s="12"/>
     </row>
-    <row r="401" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -39640,7 +39643,7 @@
       <c r="Y401" s="12"/>
       <c r="Z401" s="12"/>
     </row>
-    <row r="402" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -39668,7 +39671,7 @@
       <c r="Y402" s="12"/>
       <c r="Z402" s="12"/>
     </row>
-    <row r="403" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -39696,7 +39699,7 @@
       <c r="Y403" s="12"/>
       <c r="Z403" s="12"/>
     </row>
-    <row r="404" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -39724,7 +39727,7 @@
       <c r="Y404" s="12"/>
       <c r="Z404" s="12"/>
     </row>
-    <row r="405" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -39752,7 +39755,7 @@
       <c r="Y405" s="12"/>
       <c r="Z405" s="12"/>
     </row>
-    <row r="406" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -39780,7 +39783,7 @@
       <c r="Y406" s="12"/>
       <c r="Z406" s="12"/>
     </row>
-    <row r="407" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -39808,7 +39811,7 @@
       <c r="Y407" s="12"/>
       <c r="Z407" s="12"/>
     </row>
-    <row r="408" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -39836,7 +39839,7 @@
       <c r="Y408" s="12"/>
       <c r="Z408" s="12"/>
     </row>
-    <row r="409" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -39864,7 +39867,7 @@
       <c r="Y409" s="12"/>
       <c r="Z409" s="12"/>
     </row>
-    <row r="410" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -39892,7 +39895,7 @@
       <c r="Y410" s="12"/>
       <c r="Z410" s="12"/>
     </row>
-    <row r="411" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -39920,7 +39923,7 @@
       <c r="Y411" s="12"/>
       <c r="Z411" s="12"/>
     </row>
-    <row r="412" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -39948,7 +39951,7 @@
       <c r="Y412" s="12"/>
       <c r="Z412" s="12"/>
     </row>
-    <row r="413" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -39976,7 +39979,7 @@
       <c r="Y413" s="12"/>
       <c r="Z413" s="12"/>
     </row>
-    <row r="414" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -40004,7 +40007,7 @@
       <c r="Y414" s="12"/>
       <c r="Z414" s="12"/>
     </row>
-    <row r="415" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -40032,7 +40035,7 @@
       <c r="Y415" s="12"/>
       <c r="Z415" s="12"/>
     </row>
-    <row r="416" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -40060,7 +40063,7 @@
       <c r="Y416" s="12"/>
       <c r="Z416" s="12"/>
     </row>
-    <row r="417" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -40088,7 +40091,7 @@
       <c r="Y417" s="12"/>
       <c r="Z417" s="12"/>
     </row>
-    <row r="418" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -40116,7 +40119,7 @@
       <c r="Y418" s="12"/>
       <c r="Z418" s="12"/>
     </row>
-    <row r="419" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -40144,7 +40147,7 @@
       <c r="Y419" s="12"/>
       <c r="Z419" s="12"/>
     </row>
-    <row r="420" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -40172,7 +40175,7 @@
       <c r="Y420" s="12"/>
       <c r="Z420" s="12"/>
     </row>
-    <row r="421" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -40200,7 +40203,7 @@
       <c r="Y421" s="12"/>
       <c r="Z421" s="12"/>
     </row>
-    <row r="422" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -40228,7 +40231,7 @@
       <c r="Y422" s="12"/>
       <c r="Z422" s="12"/>
     </row>
-    <row r="423" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -40256,7 +40259,7 @@
       <c r="Y423" s="12"/>
       <c r="Z423" s="12"/>
     </row>
-    <row r="424" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -40284,7 +40287,7 @@
       <c r="Y424" s="12"/>
       <c r="Z424" s="12"/>
     </row>
-    <row r="425" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -40312,7 +40315,7 @@
       <c r="Y425" s="12"/>
       <c r="Z425" s="12"/>
     </row>
-    <row r="426" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -40340,7 +40343,7 @@
       <c r="Y426" s="12"/>
       <c r="Z426" s="12"/>
     </row>
-    <row r="427" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -40368,7 +40371,7 @@
       <c r="Y427" s="12"/>
       <c r="Z427" s="12"/>
     </row>
-    <row r="428" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -40396,7 +40399,7 @@
       <c r="Y428" s="12"/>
       <c r="Z428" s="12"/>
     </row>
-    <row r="429" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -40424,7 +40427,7 @@
       <c r="Y429" s="12"/>
       <c r="Z429" s="12"/>
     </row>
-    <row r="430" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -40452,7 +40455,7 @@
       <c r="Y430" s="12"/>
       <c r="Z430" s="12"/>
     </row>
-    <row r="431" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -40480,7 +40483,7 @@
       <c r="Y431" s="12"/>
       <c r="Z431" s="12"/>
     </row>
-    <row r="432" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -40508,7 +40511,7 @@
       <c r="Y432" s="12"/>
       <c r="Z432" s="12"/>
     </row>
-    <row r="433" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -40536,7 +40539,7 @@
       <c r="Y433" s="12"/>
       <c r="Z433" s="12"/>
     </row>
-    <row r="434" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -40564,7 +40567,7 @@
       <c r="Y434" s="12"/>
       <c r="Z434" s="12"/>
     </row>
-    <row r="435" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -40592,7 +40595,7 @@
       <c r="Y435" s="12"/>
       <c r="Z435" s="12"/>
     </row>
-    <row r="436" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -40620,7 +40623,7 @@
       <c r="Y436" s="12"/>
       <c r="Z436" s="12"/>
     </row>
-    <row r="437" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -40648,7 +40651,7 @@
       <c r="Y437" s="12"/>
       <c r="Z437" s="12"/>
     </row>
-    <row r="438" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -40676,7 +40679,7 @@
       <c r="Y438" s="12"/>
       <c r="Z438" s="12"/>
     </row>
-    <row r="439" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -40704,7 +40707,7 @@
       <c r="Y439" s="12"/>
       <c r="Z439" s="12"/>
     </row>
-    <row r="440" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -40732,7 +40735,7 @@
       <c r="Y440" s="12"/>
       <c r="Z440" s="12"/>
     </row>
-    <row r="441" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -40760,7 +40763,7 @@
       <c r="Y441" s="12"/>
       <c r="Z441" s="12"/>
     </row>
-    <row r="442" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -40788,7 +40791,7 @@
       <c r="Y442" s="12"/>
       <c r="Z442" s="12"/>
     </row>
-    <row r="443" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -40816,7 +40819,7 @@
       <c r="Y443" s="12"/>
       <c r="Z443" s="12"/>
     </row>
-    <row r="444" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -40844,7 +40847,7 @@
       <c r="Y444" s="12"/>
       <c r="Z444" s="12"/>
     </row>
-    <row r="445" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -40872,7 +40875,7 @@
       <c r="Y445" s="12"/>
       <c r="Z445" s="12"/>
     </row>
-    <row r="446" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -40900,7 +40903,7 @@
       <c r="Y446" s="12"/>
       <c r="Z446" s="12"/>
     </row>
-    <row r="447" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -40928,7 +40931,7 @@
       <c r="Y447" s="12"/>
       <c r="Z447" s="12"/>
     </row>
-    <row r="448" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -40956,7 +40959,7 @@
       <c r="Y448" s="12"/>
       <c r="Z448" s="12"/>
     </row>
-    <row r="449" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -40984,7 +40987,7 @@
       <c r="Y449" s="12"/>
       <c r="Z449" s="12"/>
     </row>
-    <row r="450" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -41012,7 +41015,7 @@
       <c r="Y450" s="12"/>
       <c r="Z450" s="12"/>
     </row>
-    <row r="451" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -41040,7 +41043,7 @@
       <c r="Y451" s="12"/>
       <c r="Z451" s="12"/>
     </row>
-    <row r="452" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -41068,7 +41071,7 @@
       <c r="Y452" s="12"/>
       <c r="Z452" s="12"/>
     </row>
-    <row r="453" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -41096,7 +41099,7 @@
       <c r="Y453" s="12"/>
       <c r="Z453" s="12"/>
     </row>
-    <row r="454" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -41124,7 +41127,7 @@
       <c r="Y454" s="12"/>
       <c r="Z454" s="12"/>
     </row>
-    <row r="455" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -41152,7 +41155,7 @@
       <c r="Y455" s="12"/>
       <c r="Z455" s="12"/>
     </row>
-    <row r="456" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -41180,7 +41183,7 @@
       <c r="Y456" s="12"/>
       <c r="Z456" s="12"/>
     </row>
-    <row r="457" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -41208,7 +41211,7 @@
       <c r="Y457" s="12"/>
       <c r="Z457" s="12"/>
     </row>
-    <row r="458" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -41236,7 +41239,7 @@
       <c r="Y458" s="12"/>
       <c r="Z458" s="12"/>
     </row>
-    <row r="459" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -41264,7 +41267,7 @@
       <c r="Y459" s="12"/>
       <c r="Z459" s="12"/>
     </row>
-    <row r="460" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -41292,7 +41295,7 @@
       <c r="Y460" s="12"/>
       <c r="Z460" s="12"/>
     </row>
-    <row r="461" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -41320,7 +41323,7 @@
       <c r="Y461" s="12"/>
       <c r="Z461" s="12"/>
     </row>
-    <row r="462" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -41348,7 +41351,7 @@
       <c r="Y462" s="12"/>
       <c r="Z462" s="12"/>
     </row>
-    <row r="463" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -41376,7 +41379,7 @@
       <c r="Y463" s="12"/>
       <c r="Z463" s="12"/>
     </row>
-    <row r="464" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -41404,7 +41407,7 @@
       <c r="Y464" s="12"/>
       <c r="Z464" s="12"/>
     </row>
-    <row r="465" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -41432,7 +41435,7 @@
       <c r="Y465" s="12"/>
       <c r="Z465" s="12"/>
     </row>
-    <row r="466" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -41460,7 +41463,7 @@
       <c r="Y466" s="12"/>
       <c r="Z466" s="12"/>
     </row>
-    <row r="467" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -41488,7 +41491,7 @@
       <c r="Y467" s="12"/>
       <c r="Z467" s="12"/>
     </row>
-    <row r="468" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -41516,7 +41519,7 @@
       <c r="Y468" s="12"/>
       <c r="Z468" s="12"/>
     </row>
-    <row r="469" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -41544,7 +41547,7 @@
       <c r="Y469" s="12"/>
       <c r="Z469" s="12"/>
     </row>
-    <row r="470" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -41572,7 +41575,7 @@
       <c r="Y470" s="12"/>
       <c r="Z470" s="12"/>
     </row>
-    <row r="471" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -41600,7 +41603,7 @@
       <c r="Y471" s="12"/>
       <c r="Z471" s="12"/>
     </row>
-    <row r="472" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -41628,7 +41631,7 @@
       <c r="Y472" s="12"/>
       <c r="Z472" s="12"/>
     </row>
-    <row r="473" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -41656,7 +41659,7 @@
       <c r="Y473" s="12"/>
       <c r="Z473" s="12"/>
     </row>
-    <row r="474" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -41684,7 +41687,7 @@
       <c r="Y474" s="12"/>
       <c r="Z474" s="12"/>
     </row>
-    <row r="475" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -41712,7 +41715,7 @@
       <c r="Y475" s="12"/>
       <c r="Z475" s="12"/>
     </row>
-    <row r="476" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -41740,7 +41743,7 @@
       <c r="Y476" s="12"/>
       <c r="Z476" s="12"/>
     </row>
-    <row r="477" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -41768,7 +41771,7 @@
       <c r="Y477" s="12"/>
       <c r="Z477" s="12"/>
     </row>
-    <row r="478" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -41796,7 +41799,7 @@
       <c r="Y478" s="12"/>
       <c r="Z478" s="12"/>
     </row>
-    <row r="479" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -41824,7 +41827,7 @@
       <c r="Y479" s="12"/>
       <c r="Z479" s="12"/>
     </row>
-    <row r="480" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -41852,7 +41855,7 @@
       <c r="Y480" s="12"/>
       <c r="Z480" s="12"/>
     </row>
-    <row r="481" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -41880,7 +41883,7 @@
       <c r="Y481" s="12"/>
       <c r="Z481" s="12"/>
     </row>
-    <row r="482" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -41908,7 +41911,7 @@
       <c r="Y482" s="12"/>
       <c r="Z482" s="12"/>
     </row>
-    <row r="483" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -41936,7 +41939,7 @@
       <c r="Y483" s="12"/>
       <c r="Z483" s="12"/>
     </row>
-    <row r="484" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -41964,7 +41967,7 @@
       <c r="Y484" s="12"/>
       <c r="Z484" s="12"/>
     </row>
-    <row r="485" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -41992,7 +41995,7 @@
       <c r="Y485" s="12"/>
       <c r="Z485" s="12"/>
     </row>
-    <row r="486" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -42020,7 +42023,7 @@
       <c r="Y486" s="12"/>
       <c r="Z486" s="12"/>
     </row>
-    <row r="487" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -42048,7 +42051,7 @@
       <c r="Y487" s="12"/>
       <c r="Z487" s="12"/>
     </row>
-    <row r="488" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -42076,7 +42079,7 @@
       <c r="Y488" s="12"/>
       <c r="Z488" s="12"/>
     </row>
-    <row r="489" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -42104,7 +42107,7 @@
       <c r="Y489" s="12"/>
       <c r="Z489" s="12"/>
     </row>
-    <row r="490" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -42132,7 +42135,7 @@
       <c r="Y490" s="12"/>
       <c r="Z490" s="12"/>
     </row>
-    <row r="491" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -42160,7 +42163,7 @@
       <c r="Y491" s="12"/>
       <c r="Z491" s="12"/>
     </row>
-    <row r="492" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -42188,7 +42191,7 @@
       <c r="Y492" s="12"/>
       <c r="Z492" s="12"/>
     </row>
-    <row r="493" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -42216,7 +42219,7 @@
       <c r="Y493" s="12"/>
       <c r="Z493" s="12"/>
     </row>
-    <row r="494" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -42244,7 +42247,7 @@
       <c r="Y494" s="12"/>
       <c r="Z494" s="12"/>
     </row>
-    <row r="495" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -42272,7 +42275,7 @@
       <c r="Y495" s="12"/>
       <c r="Z495" s="12"/>
     </row>
-    <row r="496" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -42300,7 +42303,7 @@
       <c r="Y496" s="12"/>
       <c r="Z496" s="12"/>
     </row>
-    <row r="497" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -42328,7 +42331,7 @@
       <c r="Y497" s="12"/>
       <c r="Z497" s="12"/>
     </row>
-    <row r="498" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -42356,7 +42359,7 @@
       <c r="Y498" s="12"/>
       <c r="Z498" s="12"/>
     </row>
-    <row r="499" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -42384,7 +42387,7 @@
       <c r="Y499" s="12"/>
       <c r="Z499" s="12"/>
     </row>
-    <row r="500" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -42412,7 +42415,7 @@
       <c r="Y500" s="12"/>
       <c r="Z500" s="12"/>
     </row>
-    <row r="501" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -42440,7 +42443,7 @@
       <c r="Y501" s="12"/>
       <c r="Z501" s="12"/>
     </row>
-    <row r="502" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -42468,7 +42471,7 @@
       <c r="Y502" s="12"/>
       <c r="Z502" s="12"/>
     </row>
-    <row r="503" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -42496,7 +42499,7 @@
       <c r="Y503" s="12"/>
       <c r="Z503" s="12"/>
     </row>
-    <row r="504" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -42524,7 +42527,7 @@
       <c r="Y504" s="12"/>
       <c r="Z504" s="12"/>
     </row>
-    <row r="505" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -42552,7 +42555,7 @@
       <c r="Y505" s="12"/>
       <c r="Z505" s="12"/>
     </row>
-    <row r="506" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -42580,7 +42583,7 @@
       <c r="Y506" s="12"/>
       <c r="Z506" s="12"/>
     </row>
-    <row r="507" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -42608,7 +42611,7 @@
       <c r="Y507" s="12"/>
       <c r="Z507" s="12"/>
     </row>
-    <row r="508" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -42636,7 +42639,7 @@
       <c r="Y508" s="12"/>
       <c r="Z508" s="12"/>
     </row>
-    <row r="509" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -42664,7 +42667,7 @@
       <c r="Y509" s="12"/>
       <c r="Z509" s="12"/>
     </row>
-    <row r="510" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -42692,7 +42695,7 @@
       <c r="Y510" s="12"/>
       <c r="Z510" s="12"/>
     </row>
-    <row r="511" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -42720,7 +42723,7 @@
       <c r="Y511" s="12"/>
       <c r="Z511" s="12"/>
     </row>
-    <row r="512" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -42748,7 +42751,7 @@
       <c r="Y512" s="12"/>
       <c r="Z512" s="12"/>
     </row>
-    <row r="513" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -42776,7 +42779,7 @@
       <c r="Y513" s="12"/>
       <c r="Z513" s="12"/>
     </row>
-    <row r="514" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -42804,7 +42807,7 @@
       <c r="Y514" s="12"/>
       <c r="Z514" s="12"/>
     </row>
-    <row r="515" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -42832,7 +42835,7 @@
       <c r="Y515" s="12"/>
       <c r="Z515" s="12"/>
     </row>
-    <row r="516" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -42860,7 +42863,7 @@
       <c r="Y516" s="12"/>
       <c r="Z516" s="12"/>
     </row>
-    <row r="517" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -42888,7 +42891,7 @@
       <c r="Y517" s="12"/>
       <c r="Z517" s="12"/>
     </row>
-    <row r="518" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -42916,7 +42919,7 @@
       <c r="Y518" s="12"/>
       <c r="Z518" s="12"/>
     </row>
-    <row r="519" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A519" s="12"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
@@ -42944,7 +42947,7 @@
       <c r="Y519" s="12"/>
       <c r="Z519" s="12"/>
     </row>
-    <row r="520" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -42972,7 +42975,7 @@
       <c r="Y520" s="12"/>
       <c r="Z520" s="12"/>
     </row>
-    <row r="521" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -43000,7 +43003,7 @@
       <c r="Y521" s="12"/>
       <c r="Z521" s="12"/>
     </row>
-    <row r="522" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -43028,7 +43031,7 @@
       <c r="Y522" s="12"/>
       <c r="Z522" s="12"/>
     </row>
-    <row r="523" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -43056,7 +43059,7 @@
       <c r="Y523" s="12"/>
       <c r="Z523" s="12"/>
     </row>
-    <row r="524" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -43084,7 +43087,7 @@
       <c r="Y524" s="12"/>
       <c r="Z524" s="12"/>
     </row>
-    <row r="525" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -43112,7 +43115,7 @@
       <c r="Y525" s="12"/>
       <c r="Z525" s="12"/>
     </row>
-    <row r="526" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -43140,7 +43143,7 @@
       <c r="Y526" s="12"/>
       <c r="Z526" s="12"/>
     </row>
-    <row r="527" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -43168,7 +43171,7 @@
       <c r="Y527" s="12"/>
       <c r="Z527" s="12"/>
     </row>
-    <row r="528" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -43196,7 +43199,7 @@
       <c r="Y528" s="12"/>
       <c r="Z528" s="12"/>
     </row>
-    <row r="529" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -43224,7 +43227,7 @@
       <c r="Y529" s="12"/>
       <c r="Z529" s="12"/>
     </row>
-    <row r="530" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -43252,7 +43255,7 @@
       <c r="Y530" s="12"/>
       <c r="Z530" s="12"/>
     </row>
-    <row r="531" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -43280,7 +43283,7 @@
       <c r="Y531" s="12"/>
       <c r="Z531" s="12"/>
     </row>
-    <row r="532" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -43308,7 +43311,7 @@
       <c r="Y532" s="12"/>
       <c r="Z532" s="12"/>
     </row>
-    <row r="533" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -43336,7 +43339,7 @@
       <c r="Y533" s="12"/>
       <c r="Z533" s="12"/>
     </row>
-    <row r="534" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -43364,7 +43367,7 @@
       <c r="Y534" s="12"/>
       <c r="Z534" s="12"/>
     </row>
-    <row r="535" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -43392,7 +43395,7 @@
       <c r="Y535" s="12"/>
       <c r="Z535" s="12"/>
     </row>
-    <row r="536" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -43420,7 +43423,7 @@
       <c r="Y536" s="12"/>
       <c r="Z536" s="12"/>
     </row>
-    <row r="537" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -43448,7 +43451,7 @@
       <c r="Y537" s="12"/>
       <c r="Z537" s="12"/>
     </row>
-    <row r="538" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -43476,7 +43479,7 @@
       <c r="Y538" s="12"/>
       <c r="Z538" s="12"/>
     </row>
-    <row r="539" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -43504,7 +43507,7 @@
       <c r="Y539" s="12"/>
       <c r="Z539" s="12"/>
     </row>
-    <row r="540" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -43532,7 +43535,7 @@
       <c r="Y540" s="12"/>
       <c r="Z540" s="12"/>
     </row>
-    <row r="541" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -43560,7 +43563,7 @@
       <c r="Y541" s="12"/>
       <c r="Z541" s="12"/>
     </row>
-    <row r="542" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -43588,7 +43591,7 @@
       <c r="Y542" s="12"/>
       <c r="Z542" s="12"/>
     </row>
-    <row r="543" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -43616,7 +43619,7 @@
       <c r="Y543" s="12"/>
       <c r="Z543" s="12"/>
     </row>
-    <row r="544" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -43644,7 +43647,7 @@
       <c r="Y544" s="12"/>
       <c r="Z544" s="12"/>
     </row>
-    <row r="545" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -43672,7 +43675,7 @@
       <c r="Y545" s="12"/>
       <c r="Z545" s="12"/>
     </row>
-    <row r="546" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -43700,7 +43703,7 @@
       <c r="Y546" s="12"/>
       <c r="Z546" s="12"/>
     </row>
-    <row r="547" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A547" s="12"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
@@ -43728,7 +43731,7 @@
       <c r="Y547" s="12"/>
       <c r="Z547" s="12"/>
     </row>
-    <row r="548" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -43756,7 +43759,7 @@
       <c r="Y548" s="12"/>
       <c r="Z548" s="12"/>
     </row>
-    <row r="549" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -43784,7 +43787,7 @@
       <c r="Y549" s="12"/>
       <c r="Z549" s="12"/>
     </row>
-    <row r="550" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -43812,7 +43815,7 @@
       <c r="Y550" s="12"/>
       <c r="Z550" s="12"/>
     </row>
-    <row r="551" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -43840,7 +43843,7 @@
       <c r="Y551" s="12"/>
       <c r="Z551" s="12"/>
     </row>
-    <row r="552" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -43868,7 +43871,7 @@
       <c r="Y552" s="12"/>
       <c r="Z552" s="12"/>
     </row>
-    <row r="553" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -43896,7 +43899,7 @@
       <c r="Y553" s="12"/>
       <c r="Z553" s="12"/>
     </row>
-    <row r="554" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -43924,7 +43927,7 @@
       <c r="Y554" s="12"/>
       <c r="Z554" s="12"/>
     </row>
-    <row r="555" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -43952,7 +43955,7 @@
       <c r="Y555" s="12"/>
       <c r="Z555" s="12"/>
     </row>
-    <row r="556" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -43980,7 +43983,7 @@
       <c r="Y556" s="12"/>
       <c r="Z556" s="12"/>
     </row>
-    <row r="557" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -44008,7 +44011,7 @@
       <c r="Y557" s="12"/>
       <c r="Z557" s="12"/>
     </row>
-    <row r="558" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -44036,7 +44039,7 @@
       <c r="Y558" s="12"/>
       <c r="Z558" s="12"/>
     </row>
-    <row r="559" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -44064,7 +44067,7 @@
       <c r="Y559" s="12"/>
       <c r="Z559" s="12"/>
     </row>
-    <row r="560" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -44092,7 +44095,7 @@
       <c r="Y560" s="12"/>
       <c r="Z560" s="12"/>
     </row>
-    <row r="561" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -44120,7 +44123,7 @@
       <c r="Y561" s="12"/>
       <c r="Z561" s="12"/>
     </row>
-    <row r="562" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -44148,7 +44151,7 @@
       <c r="Y562" s="12"/>
       <c r="Z562" s="12"/>
     </row>
-    <row r="563" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -44176,7 +44179,7 @@
       <c r="Y563" s="12"/>
       <c r="Z563" s="12"/>
     </row>
-    <row r="564" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -44204,7 +44207,7 @@
       <c r="Y564" s="12"/>
       <c r="Z564" s="12"/>
     </row>
-    <row r="565" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -44232,7 +44235,7 @@
       <c r="Y565" s="12"/>
       <c r="Z565" s="12"/>
     </row>
-    <row r="566" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -44260,7 +44263,7 @@
       <c r="Y566" s="12"/>
       <c r="Z566" s="12"/>
     </row>
-    <row r="567" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -44288,7 +44291,7 @@
       <c r="Y567" s="12"/>
       <c r="Z567" s="12"/>
     </row>
-    <row r="568" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -44316,7 +44319,7 @@
       <c r="Y568" s="12"/>
       <c r="Z568" s="12"/>
     </row>
-    <row r="569" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -44344,7 +44347,7 @@
       <c r="Y569" s="12"/>
       <c r="Z569" s="12"/>
     </row>
-    <row r="570" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -44372,7 +44375,7 @@
       <c r="Y570" s="12"/>
       <c r="Z570" s="12"/>
     </row>
-    <row r="571" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -44400,7 +44403,7 @@
       <c r="Y571" s="12"/>
       <c r="Z571" s="12"/>
     </row>
-    <row r="572" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -44428,7 +44431,7 @@
       <c r="Y572" s="12"/>
       <c r="Z572" s="12"/>
     </row>
-    <row r="573" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -44456,7 +44459,7 @@
       <c r="Y573" s="12"/>
       <c r="Z573" s="12"/>
     </row>
-    <row r="574" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -44484,7 +44487,7 @@
       <c r="Y574" s="12"/>
       <c r="Z574" s="12"/>
     </row>
-    <row r="575" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -44512,7 +44515,7 @@
       <c r="Y575" s="12"/>
       <c r="Z575" s="12"/>
     </row>
-    <row r="576" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -44540,7 +44543,7 @@
       <c r="Y576" s="12"/>
       <c r="Z576" s="12"/>
     </row>
-    <row r="577" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -44568,7 +44571,7 @@
       <c r="Y577" s="12"/>
       <c r="Z577" s="12"/>
     </row>
-    <row r="578" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -44596,7 +44599,7 @@
       <c r="Y578" s="12"/>
       <c r="Z578" s="12"/>
     </row>
-    <row r="579" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -44624,7 +44627,7 @@
       <c r="Y579" s="12"/>
       <c r="Z579" s="12"/>
     </row>
-    <row r="580" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A580" s="12"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
@@ -44652,7 +44655,7 @@
       <c r="Y580" s="12"/>
       <c r="Z580" s="12"/>
     </row>
-    <row r="581" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -44680,7 +44683,7 @@
       <c r="Y581" s="12"/>
       <c r="Z581" s="12"/>
     </row>
-    <row r="582" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -44708,7 +44711,7 @@
       <c r="Y582" s="12"/>
       <c r="Z582" s="12"/>
     </row>
-    <row r="583" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -44736,7 +44739,7 @@
       <c r="Y583" s="12"/>
       <c r="Z583" s="12"/>
     </row>
-    <row r="584" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -44764,7 +44767,7 @@
       <c r="Y584" s="12"/>
       <c r="Z584" s="12"/>
     </row>
-    <row r="585" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -44792,7 +44795,7 @@
       <c r="Y585" s="12"/>
       <c r="Z585" s="12"/>
     </row>
-    <row r="586" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -44820,7 +44823,7 @@
       <c r="Y586" s="12"/>
       <c r="Z586" s="12"/>
     </row>
-    <row r="587" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -44848,7 +44851,7 @@
       <c r="Y587" s="12"/>
       <c r="Z587" s="12"/>
     </row>
-    <row r="588" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -44876,7 +44879,7 @@
       <c r="Y588" s="12"/>
       <c r="Z588" s="12"/>
     </row>
-    <row r="589" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -44904,7 +44907,7 @@
       <c r="Y589" s="12"/>
       <c r="Z589" s="12"/>
     </row>
-    <row r="590" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -44932,7 +44935,7 @@
       <c r="Y590" s="12"/>
       <c r="Z590" s="12"/>
     </row>
-    <row r="591" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -44960,7 +44963,7 @@
       <c r="Y591" s="12"/>
       <c r="Z591" s="12"/>
     </row>
-    <row r="592" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -44988,7 +44991,7 @@
       <c r="Y592" s="12"/>
       <c r="Z592" s="12"/>
     </row>
-    <row r="593" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -45016,7 +45019,7 @@
       <c r="Y593" s="12"/>
       <c r="Z593" s="12"/>
     </row>
-    <row r="594" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -45044,7 +45047,7 @@
       <c r="Y594" s="12"/>
       <c r="Z594" s="12"/>
     </row>
-    <row r="595" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -45072,7 +45075,7 @@
       <c r="Y595" s="12"/>
       <c r="Z595" s="12"/>
     </row>
-    <row r="596" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -45100,7 +45103,7 @@
       <c r="Y596" s="12"/>
       <c r="Z596" s="12"/>
     </row>
-    <row r="597" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -45128,7 +45131,7 @@
       <c r="Y597" s="12"/>
       <c r="Z597" s="12"/>
     </row>
-    <row r="598" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -45156,7 +45159,7 @@
       <c r="Y598" s="12"/>
       <c r="Z598" s="12"/>
     </row>
-    <row r="599" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -45184,7 +45187,7 @@
       <c r="Y599" s="12"/>
       <c r="Z599" s="12"/>
     </row>
-    <row r="600" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -45212,7 +45215,7 @@
       <c r="Y600" s="12"/>
       <c r="Z600" s="12"/>
     </row>
-    <row r="601" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -45240,7 +45243,7 @@
       <c r="Y601" s="12"/>
       <c r="Z601" s="12"/>
     </row>
-    <row r="602" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -45268,7 +45271,7 @@
       <c r="Y602" s="12"/>
       <c r="Z602" s="12"/>
     </row>
-    <row r="603" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -45296,7 +45299,7 @@
       <c r="Y603" s="12"/>
       <c r="Z603" s="12"/>
     </row>
-    <row r="604" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -45324,7 +45327,7 @@
       <c r="Y604" s="12"/>
       <c r="Z604" s="12"/>
     </row>
-    <row r="605" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -45352,7 +45355,7 @@
       <c r="Y605" s="12"/>
       <c r="Z605" s="12"/>
     </row>
-    <row r="606" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -45380,7 +45383,7 @@
       <c r="Y606" s="12"/>
       <c r="Z606" s="12"/>
     </row>
-    <row r="607" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -45408,7 +45411,7 @@
       <c r="Y607" s="12"/>
       <c r="Z607" s="12"/>
     </row>
-    <row r="608" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -45436,7 +45439,7 @@
       <c r="Y608" s="12"/>
       <c r="Z608" s="12"/>
     </row>
-    <row r="609" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -45464,7 +45467,7 @@
       <c r="Y609" s="12"/>
       <c r="Z609" s="12"/>
     </row>
-    <row r="610" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -45492,7 +45495,7 @@
       <c r="Y610" s="12"/>
       <c r="Z610" s="12"/>
     </row>
-    <row r="611" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -45520,7 +45523,7 @@
       <c r="Y611" s="12"/>
       <c r="Z611" s="12"/>
     </row>
-    <row r="612" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -45548,7 +45551,7 @@
       <c r="Y612" s="12"/>
       <c r="Z612" s="12"/>
     </row>
-    <row r="613" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -45576,7 +45579,7 @@
       <c r="Y613" s="12"/>
       <c r="Z613" s="12"/>
     </row>
-    <row r="614" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -45604,7 +45607,7 @@
       <c r="Y614" s="12"/>
       <c r="Z614" s="12"/>
     </row>
-    <row r="615" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -45632,7 +45635,7 @@
       <c r="Y615" s="12"/>
       <c r="Z615" s="12"/>
     </row>
-    <row r="616" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -45660,7 +45663,7 @@
       <c r="Y616" s="12"/>
       <c r="Z616" s="12"/>
     </row>
-    <row r="617" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -45688,7 +45691,7 @@
       <c r="Y617" s="12"/>
       <c r="Z617" s="12"/>
     </row>
-    <row r="618" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A618" s="12"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
@@ -45716,7 +45719,7 @@
       <c r="Y618" s="12"/>
       <c r="Z618" s="12"/>
     </row>
-    <row r="619" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -45744,7 +45747,7 @@
       <c r="Y619" s="12"/>
       <c r="Z619" s="12"/>
     </row>
-    <row r="620" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -45772,7 +45775,7 @@
       <c r="Y620" s="12"/>
       <c r="Z620" s="12"/>
     </row>
-    <row r="621" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -45800,7 +45803,7 @@
       <c r="Y621" s="12"/>
       <c r="Z621" s="12"/>
     </row>
-    <row r="622" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -45828,7 +45831,7 @@
       <c r="Y622" s="12"/>
       <c r="Z622" s="12"/>
     </row>
-    <row r="623" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -45856,7 +45859,7 @@
       <c r="Y623" s="12"/>
       <c r="Z623" s="12"/>
     </row>
-    <row r="624" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -45884,7 +45887,7 @@
       <c r="Y624" s="12"/>
       <c r="Z624" s="12"/>
     </row>
-    <row r="625" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -45912,7 +45915,7 @@
       <c r="Y625" s="12"/>
       <c r="Z625" s="12"/>
     </row>
-    <row r="626" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -45940,7 +45943,7 @@
       <c r="Y626" s="12"/>
       <c r="Z626" s="12"/>
     </row>
-    <row r="627" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -45968,7 +45971,7 @@
       <c r="Y627" s="12"/>
       <c r="Z627" s="12"/>
     </row>
-    <row r="628" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -45996,7 +45999,7 @@
       <c r="Y628" s="12"/>
       <c r="Z628" s="12"/>
     </row>
-    <row r="629" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -46024,7 +46027,7 @@
       <c r="Y629" s="12"/>
       <c r="Z629" s="12"/>
     </row>
-    <row r="630" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -46052,7 +46055,7 @@
       <c r="Y630" s="12"/>
       <c r="Z630" s="12"/>
     </row>
-    <row r="631" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -46080,7 +46083,7 @@
       <c r="Y631" s="12"/>
       <c r="Z631" s="12"/>
     </row>
-    <row r="632" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -46108,7 +46111,7 @@
       <c r="Y632" s="12"/>
       <c r="Z632" s="12"/>
     </row>
-    <row r="633" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -46136,7 +46139,7 @@
       <c r="Y633" s="12"/>
       <c r="Z633" s="12"/>
     </row>
-    <row r="634" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -46164,7 +46167,7 @@
       <c r="Y634" s="12"/>
       <c r="Z634" s="12"/>
     </row>
-    <row r="635" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -46192,7 +46195,7 @@
       <c r="Y635" s="12"/>
       <c r="Z635" s="12"/>
     </row>
-    <row r="636" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -46220,7 +46223,7 @@
       <c r="Y636" s="12"/>
       <c r="Z636" s="12"/>
     </row>
-    <row r="637" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -46248,7 +46251,7 @@
       <c r="Y637" s="12"/>
       <c r="Z637" s="12"/>
     </row>
-    <row r="638" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -46276,7 +46279,7 @@
       <c r="Y638" s="12"/>
       <c r="Z638" s="12"/>
     </row>
-    <row r="639" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -46304,7 +46307,7 @@
       <c r="Y639" s="12"/>
       <c r="Z639" s="12"/>
     </row>
-    <row r="640" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -46332,7 +46335,7 @@
       <c r="Y640" s="12"/>
       <c r="Z640" s="12"/>
     </row>
-    <row r="641" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -46360,7 +46363,7 @@
       <c r="Y641" s="12"/>
       <c r="Z641" s="12"/>
     </row>
-    <row r="642" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -46388,7 +46391,7 @@
       <c r="Y642" s="12"/>
       <c r="Z642" s="12"/>
     </row>
-    <row r="643" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -46416,7 +46419,7 @@
       <c r="Y643" s="12"/>
       <c r="Z643" s="12"/>
     </row>
-    <row r="644" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -46444,7 +46447,7 @@
       <c r="Y644" s="12"/>
       <c r="Z644" s="12"/>
     </row>
-    <row r="645" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -46472,7 +46475,7 @@
       <c r="Y645" s="12"/>
       <c r="Z645" s="12"/>
     </row>
-    <row r="646" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -46500,7 +46503,7 @@
       <c r="Y646" s="12"/>
       <c r="Z646" s="12"/>
     </row>
-    <row r="647" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -46528,7 +46531,7 @@
       <c r="Y647" s="12"/>
       <c r="Z647" s="12"/>
     </row>
-    <row r="648" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -46556,7 +46559,7 @@
       <c r="Y648" s="12"/>
       <c r="Z648" s="12"/>
     </row>
-    <row r="649" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -46584,7 +46587,7 @@
       <c r="Y649" s="12"/>
       <c r="Z649" s="12"/>
     </row>
-    <row r="650" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -46612,7 +46615,7 @@
       <c r="Y650" s="12"/>
       <c r="Z650" s="12"/>
     </row>
-    <row r="651" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -46640,7 +46643,7 @@
       <c r="Y651" s="12"/>
       <c r="Z651" s="12"/>
     </row>
-    <row r="652" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -46668,7 +46671,7 @@
       <c r="Y652" s="12"/>
       <c r="Z652" s="12"/>
     </row>
-    <row r="653" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -46696,7 +46699,7 @@
       <c r="Y653" s="12"/>
       <c r="Z653" s="12"/>
     </row>
-    <row r="654" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A654" s="12"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
@@ -46724,7 +46727,7 @@
       <c r="Y654" s="12"/>
       <c r="Z654" s="12"/>
     </row>
-    <row r="655" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -46752,7 +46755,7 @@
       <c r="Y655" s="12"/>
       <c r="Z655" s="12"/>
     </row>
-    <row r="656" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -46780,7 +46783,7 @@
       <c r="Y656" s="12"/>
       <c r="Z656" s="12"/>
     </row>
-    <row r="657" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -46808,7 +46811,7 @@
       <c r="Y657" s="12"/>
       <c r="Z657" s="12"/>
     </row>
-    <row r="658" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -46836,7 +46839,7 @@
       <c r="Y658" s="12"/>
       <c r="Z658" s="12"/>
     </row>
-    <row r="659" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -46864,7 +46867,7 @@
       <c r="Y659" s="12"/>
       <c r="Z659" s="12"/>
     </row>
-    <row r="660" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -46892,7 +46895,7 @@
       <c r="Y660" s="12"/>
       <c r="Z660" s="12"/>
     </row>
-    <row r="661" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -46920,7 +46923,7 @@
       <c r="Y661" s="12"/>
       <c r="Z661" s="12"/>
     </row>
-    <row r="662" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -46948,7 +46951,7 @@
       <c r="Y662" s="12"/>
       <c r="Z662" s="12"/>
     </row>
-    <row r="663" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -46976,7 +46979,7 @@
       <c r="Y663" s="12"/>
       <c r="Z663" s="12"/>
     </row>
-    <row r="664" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -47004,7 +47007,7 @@
       <c r="Y664" s="12"/>
       <c r="Z664" s="12"/>
     </row>
-    <row r="665" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -47032,7 +47035,7 @@
       <c r="Y665" s="12"/>
       <c r="Z665" s="12"/>
     </row>
-    <row r="666" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -47060,7 +47063,7 @@
       <c r="Y666" s="12"/>
       <c r="Z666" s="12"/>
     </row>
-    <row r="667" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -47088,7 +47091,7 @@
       <c r="Y667" s="12"/>
       <c r="Z667" s="12"/>
     </row>
-    <row r="668" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -47116,7 +47119,7 @@
       <c r="Y668" s="12"/>
       <c r="Z668" s="12"/>
     </row>
-    <row r="669" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -47144,7 +47147,7 @@
       <c r="Y669" s="12"/>
       <c r="Z669" s="12"/>
     </row>
-    <row r="670" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -47172,7 +47175,7 @@
       <c r="Y670" s="12"/>
       <c r="Z670" s="12"/>
     </row>
-    <row r="671" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -47200,7 +47203,7 @@
       <c r="Y671" s="12"/>
       <c r="Z671" s="12"/>
     </row>
-    <row r="672" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -47228,7 +47231,7 @@
       <c r="Y672" s="12"/>
       <c r="Z672" s="12"/>
     </row>
-    <row r="673" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -47256,7 +47259,7 @@
       <c r="Y673" s="12"/>
       <c r="Z673" s="12"/>
     </row>
-    <row r="674" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -47284,7 +47287,7 @@
       <c r="Y674" s="12"/>
       <c r="Z674" s="12"/>
     </row>
-    <row r="675" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -47312,7 +47315,7 @@
       <c r="Y675" s="12"/>
       <c r="Z675" s="12"/>
     </row>
-    <row r="676" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -47340,7 +47343,7 @@
       <c r="Y676" s="12"/>
       <c r="Z676" s="12"/>
     </row>
-    <row r="677" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -47368,7 +47371,7 @@
       <c r="Y677" s="12"/>
       <c r="Z677" s="12"/>
     </row>
-    <row r="678" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -47396,7 +47399,7 @@
       <c r="Y678" s="12"/>
       <c r="Z678" s="12"/>
     </row>
-    <row r="679" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -47424,7 +47427,7 @@
       <c r="Y679" s="12"/>
       <c r="Z679" s="12"/>
     </row>
-    <row r="680" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -47452,7 +47455,7 @@
       <c r="Y680" s="12"/>
       <c r="Z680" s="12"/>
     </row>
-    <row r="681" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -47480,7 +47483,7 @@
       <c r="Y681" s="12"/>
       <c r="Z681" s="12"/>
     </row>
-    <row r="682" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -47508,7 +47511,7 @@
       <c r="Y682" s="12"/>
       <c r="Z682" s="12"/>
     </row>
-    <row r="683" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -47536,7 +47539,7 @@
       <c r="Y683" s="12"/>
       <c r="Z683" s="12"/>
     </row>
-    <row r="684" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -47564,7 +47567,7 @@
       <c r="Y684" s="12"/>
       <c r="Z684" s="12"/>
     </row>
-    <row r="685" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -47592,7 +47595,7 @@
       <c r="Y685" s="12"/>
       <c r="Z685" s="12"/>
     </row>
-    <row r="686" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -47620,7 +47623,7 @@
       <c r="Y686" s="12"/>
       <c r="Z686" s="12"/>
     </row>
-    <row r="687" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -47648,7 +47651,7 @@
       <c r="Y687" s="12"/>
       <c r="Z687" s="12"/>
     </row>
-    <row r="688" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -47676,7 +47679,7 @@
       <c r="Y688" s="12"/>
       <c r="Z688" s="12"/>
     </row>
-    <row r="689" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -47704,7 +47707,7 @@
       <c r="Y689" s="12"/>
       <c r="Z689" s="12"/>
     </row>
-    <row r="690" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -47732,7 +47735,7 @@
       <c r="Y690" s="12"/>
       <c r="Z690" s="12"/>
     </row>
-    <row r="691" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -47760,7 +47763,7 @@
       <c r="Y691" s="12"/>
       <c r="Z691" s="12"/>
     </row>
-    <row r="692" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -47788,7 +47791,7 @@
       <c r="Y692" s="12"/>
       <c r="Z692" s="12"/>
     </row>
-    <row r="693" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -47816,7 +47819,7 @@
       <c r="Y693" s="12"/>
       <c r="Z693" s="12"/>
     </row>
-    <row r="694" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -47844,7 +47847,7 @@
       <c r="Y694" s="12"/>
       <c r="Z694" s="12"/>
     </row>
-    <row r="695" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -47872,7 +47875,7 @@
       <c r="Y695" s="12"/>
       <c r="Z695" s="12"/>
     </row>
-    <row r="696" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -47900,7 +47903,7 @@
       <c r="Y696" s="12"/>
       <c r="Z696" s="12"/>
     </row>
-    <row r="697" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -47928,7 +47931,7 @@
       <c r="Y697" s="12"/>
       <c r="Z697" s="12"/>
     </row>
-    <row r="698" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -47956,7 +47959,7 @@
       <c r="Y698" s="12"/>
       <c r="Z698" s="12"/>
     </row>
-    <row r="699" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -47984,7 +47987,7 @@
       <c r="Y699" s="12"/>
       <c r="Z699" s="12"/>
     </row>
-    <row r="700" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -48012,7 +48015,7 @@
       <c r="Y700" s="12"/>
       <c r="Z700" s="12"/>
     </row>
-    <row r="701" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -48040,7 +48043,7 @@
       <c r="Y701" s="12"/>
       <c r="Z701" s="12"/>
     </row>
-    <row r="702" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -48068,7 +48071,7 @@
       <c r="Y702" s="12"/>
       <c r="Z702" s="12"/>
     </row>
-    <row r="703" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A703" s="12"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
@@ -48096,7 +48099,7 @@
       <c r="Y703" s="12"/>
       <c r="Z703" s="12"/>
     </row>
-    <row r="704" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -48124,7 +48127,7 @@
       <c r="Y704" s="12"/>
       <c r="Z704" s="12"/>
     </row>
-    <row r="705" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -48152,7 +48155,7 @@
       <c r="Y705" s="12"/>
       <c r="Z705" s="12"/>
     </row>
-    <row r="706" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -48180,7 +48183,7 @@
       <c r="Y706" s="12"/>
       <c r="Z706" s="12"/>
     </row>
-    <row r="707" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -48208,7 +48211,7 @@
       <c r="Y707" s="12"/>
       <c r="Z707" s="12"/>
     </row>
-    <row r="708" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -48236,7 +48239,7 @@
       <c r="Y708" s="12"/>
       <c r="Z708" s="12"/>
     </row>
-    <row r="709" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -48264,7 +48267,7 @@
       <c r="Y709" s="12"/>
       <c r="Z709" s="12"/>
     </row>
-    <row r="710" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -48292,7 +48295,7 @@
       <c r="Y710" s="12"/>
       <c r="Z710" s="12"/>
     </row>
-    <row r="711" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -48320,7 +48323,7 @@
       <c r="Y711" s="12"/>
       <c r="Z711" s="12"/>
     </row>
-    <row r="712" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -48348,7 +48351,7 @@
       <c r="Y712" s="12"/>
       <c r="Z712" s="12"/>
     </row>
-    <row r="713" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -48376,7 +48379,7 @@
       <c r="Y713" s="12"/>
       <c r="Z713" s="12"/>
     </row>
-    <row r="714" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -48404,7 +48407,7 @@
       <c r="Y714" s="12"/>
       <c r="Z714" s="12"/>
     </row>
-    <row r="715" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -48432,7 +48435,7 @@
       <c r="Y715" s="12"/>
       <c r="Z715" s="12"/>
     </row>
-    <row r="716" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -48460,7 +48463,7 @@
       <c r="Y716" s="12"/>
       <c r="Z716" s="12"/>
     </row>
-    <row r="717" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -48488,7 +48491,7 @@
       <c r="Y717" s="12"/>
       <c r="Z717" s="12"/>
     </row>
-    <row r="718" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -48516,7 +48519,7 @@
       <c r="Y718" s="12"/>
       <c r="Z718" s="12"/>
     </row>
-    <row r="719" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -48544,7 +48547,7 @@
       <c r="Y719" s="12"/>
       <c r="Z719" s="12"/>
     </row>
-    <row r="720" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -48572,7 +48575,7 @@
       <c r="Y720" s="12"/>
       <c r="Z720" s="12"/>
     </row>
-    <row r="721" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -48600,7 +48603,7 @@
       <c r="Y721" s="12"/>
       <c r="Z721" s="12"/>
     </row>
-    <row r="722" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -48628,7 +48631,7 @@
       <c r="Y722" s="12"/>
       <c r="Z722" s="12"/>
     </row>
-    <row r="723" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -48656,7 +48659,7 @@
       <c r="Y723" s="12"/>
       <c r="Z723" s="12"/>
     </row>
-    <row r="724" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -48684,7 +48687,7 @@
       <c r="Y724" s="12"/>
       <c r="Z724" s="12"/>
     </row>
-    <row r="725" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -48712,7 +48715,7 @@
       <c r="Y725" s="12"/>
       <c r="Z725" s="12"/>
     </row>
-    <row r="726" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -48740,7 +48743,7 @@
       <c r="Y726" s="12"/>
       <c r="Z726" s="12"/>
     </row>
-    <row r="727" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A727" s="12"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
@@ -48768,7 +48771,7 @@
       <c r="Y727" s="12"/>
       <c r="Z727" s="12"/>
     </row>
-    <row r="728" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -48796,7 +48799,7 @@
       <c r="Y728" s="12"/>
       <c r="Z728" s="12"/>
     </row>
-    <row r="729" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -48824,7 +48827,7 @@
       <c r="Y729" s="12"/>
       <c r="Z729" s="12"/>
     </row>
-    <row r="730" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -48852,7 +48855,7 @@
       <c r="Y730" s="12"/>
       <c r="Z730" s="12"/>
     </row>
-    <row r="731" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -48880,7 +48883,7 @@
       <c r="Y731" s="12"/>
       <c r="Z731" s="12"/>
     </row>
-    <row r="732" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -48908,7 +48911,7 @@
       <c r="Y732" s="12"/>
       <c r="Z732" s="12"/>
     </row>
-    <row r="733" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -48936,7 +48939,7 @@
       <c r="Y733" s="12"/>
       <c r="Z733" s="12"/>
     </row>
-    <row r="734" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -48964,7 +48967,7 @@
       <c r="Y734" s="12"/>
       <c r="Z734" s="12"/>
     </row>
-    <row r="735" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -48992,7 +48995,7 @@
       <c r="Y735" s="12"/>
       <c r="Z735" s="12"/>
     </row>
-    <row r="736" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A736" s="12"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
@@ -49020,7 +49023,7 @@
       <c r="Y736" s="12"/>
       <c r="Z736" s="12"/>
     </row>
-    <row r="737" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -49048,7 +49051,7 @@
       <c r="Y737" s="12"/>
       <c r="Z737" s="12"/>
     </row>
-    <row r="738" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -49076,7 +49079,7 @@
       <c r="Y738" s="12"/>
       <c r="Z738" s="12"/>
     </row>
-    <row r="739" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -49104,7 +49107,7 @@
       <c r="Y739" s="12"/>
       <c r="Z739" s="12"/>
     </row>
-    <row r="740" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -49132,7 +49135,7 @@
       <c r="Y740" s="12"/>
       <c r="Z740" s="12"/>
     </row>
-    <row r="741" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -49160,7 +49163,7 @@
       <c r="Y741" s="12"/>
       <c r="Z741" s="12"/>
     </row>
-    <row r="742" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -49188,7 +49191,7 @@
       <c r="Y742" s="12"/>
       <c r="Z742" s="12"/>
     </row>
-    <row r="743" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -49216,7 +49219,7 @@
       <c r="Y743" s="12"/>
       <c r="Z743" s="12"/>
     </row>
-    <row r="744" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -49244,7 +49247,7 @@
       <c r="Y744" s="12"/>
       <c r="Z744" s="12"/>
     </row>
-    <row r="745" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A745" s="12"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
@@ -49272,7 +49275,7 @@
       <c r="Y745" s="12"/>
       <c r="Z745" s="12"/>
     </row>
-    <row r="746" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -49300,7 +49303,7 @@
       <c r="Y746" s="12"/>
       <c r="Z746" s="12"/>
     </row>
-    <row r="747" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -49328,7 +49331,7 @@
       <c r="Y747" s="12"/>
       <c r="Z747" s="12"/>
     </row>
-    <row r="748" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -49356,7 +49359,7 @@
       <c r="Y748" s="12"/>
       <c r="Z748" s="12"/>
     </row>
-    <row r="749" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -49384,7 +49387,7 @@
       <c r="Y749" s="12"/>
       <c r="Z749" s="12"/>
     </row>
-    <row r="750" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -49412,7 +49415,7 @@
       <c r="Y750" s="12"/>
       <c r="Z750" s="12"/>
     </row>
-    <row r="751" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -49440,7 +49443,7 @@
       <c r="Y751" s="12"/>
       <c r="Z751" s="12"/>
     </row>
-    <row r="752" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -49468,7 +49471,7 @@
       <c r="Y752" s="12"/>
       <c r="Z752" s="12"/>
     </row>
-    <row r="753" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -49496,7 +49499,7 @@
       <c r="Y753" s="12"/>
       <c r="Z753" s="12"/>
     </row>
-    <row r="754" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -49524,7 +49527,7 @@
       <c r="Y754" s="12"/>
       <c r="Z754" s="12"/>
     </row>
-    <row r="755" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -49552,7 +49555,7 @@
       <c r="Y755" s="12"/>
       <c r="Z755" s="12"/>
     </row>
-    <row r="756" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -49580,7 +49583,7 @@
       <c r="Y756" s="12"/>
       <c r="Z756" s="12"/>
     </row>
-    <row r="757" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -49608,7 +49611,7 @@
       <c r="Y757" s="12"/>
       <c r="Z757" s="12"/>
     </row>
-    <row r="758" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -49636,7 +49639,7 @@
       <c r="Y758" s="12"/>
       <c r="Z758" s="12"/>
     </row>
-    <row r="759" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -49664,7 +49667,7 @@
       <c r="Y759" s="12"/>
       <c r="Z759" s="12"/>
     </row>
-    <row r="760" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -49692,7 +49695,7 @@
       <c r="Y760" s="12"/>
       <c r="Z760" s="12"/>
     </row>
-    <row r="761" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -49720,7 +49723,7 @@
       <c r="Y761" s="12"/>
       <c r="Z761" s="12"/>
     </row>
-    <row r="762" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -49748,7 +49751,7 @@
       <c r="Y762" s="12"/>
       <c r="Z762" s="12"/>
     </row>
-    <row r="763" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -49776,7 +49779,7 @@
       <c r="Y763" s="12"/>
       <c r="Z763" s="12"/>
     </row>
-    <row r="764" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -49804,7 +49807,7 @@
       <c r="Y764" s="12"/>
       <c r="Z764" s="12"/>
     </row>
-    <row r="765" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A765" s="12"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
@@ -49832,7 +49835,7 @@
       <c r="Y765" s="12"/>
       <c r="Z765" s="12"/>
     </row>
-    <row r="766" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -49860,7 +49863,7 @@
       <c r="Y766" s="12"/>
       <c r="Z766" s="12"/>
     </row>
-    <row r="767" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -49888,7 +49891,7 @@
       <c r="Y767" s="12"/>
       <c r="Z767" s="12"/>
     </row>
-    <row r="768" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -49916,7 +49919,7 @@
       <c r="Y768" s="12"/>
       <c r="Z768" s="12"/>
     </row>
-    <row r="769" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -49944,7 +49947,7 @@
       <c r="Y769" s="12"/>
       <c r="Z769" s="12"/>
     </row>
-    <row r="770" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -49972,7 +49975,7 @@
       <c r="Y770" s="12"/>
       <c r="Z770" s="12"/>
     </row>
-    <row r="771" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -50000,7 +50003,7 @@
       <c r="Y771" s="12"/>
       <c r="Z771" s="12"/>
     </row>
-    <row r="772" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -50028,7 +50031,7 @@
       <c r="Y772" s="12"/>
       <c r="Z772" s="12"/>
     </row>
-    <row r="773" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -50056,7 +50059,7 @@
       <c r="Y773" s="12"/>
       <c r="Z773" s="12"/>
     </row>
-    <row r="774" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -50084,7 +50087,7 @@
       <c r="Y774" s="12"/>
       <c r="Z774" s="12"/>
     </row>
-    <row r="775" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -50112,7 +50115,7 @@
       <c r="Y775" s="12"/>
       <c r="Z775" s="12"/>
     </row>
-    <row r="776" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -50140,7 +50143,7 @@
       <c r="Y776" s="12"/>
       <c r="Z776" s="12"/>
     </row>
-    <row r="777" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -50168,7 +50171,7 @@
       <c r="Y777" s="12"/>
       <c r="Z777" s="12"/>
     </row>
-    <row r="778" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -50196,7 +50199,7 @@
       <c r="Y778" s="12"/>
       <c r="Z778" s="12"/>
     </row>
-    <row r="779" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -50224,7 +50227,7 @@
       <c r="Y779" s="12"/>
       <c r="Z779" s="12"/>
     </row>
-    <row r="780" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -50252,7 +50255,7 @@
       <c r="Y780" s="12"/>
       <c r="Z780" s="12"/>
     </row>
-    <row r="781" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -50280,7 +50283,7 @@
       <c r="Y781" s="12"/>
       <c r="Z781" s="12"/>
     </row>
-    <row r="782" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -50308,7 +50311,7 @@
       <c r="Y782" s="12"/>
       <c r="Z782" s="12"/>
     </row>
-    <row r="783" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -50336,7 +50339,7 @@
       <c r="Y783" s="12"/>
       <c r="Z783" s="12"/>
     </row>
-    <row r="784" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -50364,7 +50367,7 @@
       <c r="Y784" s="12"/>
       <c r="Z784" s="12"/>
     </row>
-    <row r="785" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -50392,7 +50395,7 @@
       <c r="Y785" s="12"/>
       <c r="Z785" s="12"/>
     </row>
-    <row r="786" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -50420,7 +50423,7 @@
       <c r="Y786" s="12"/>
       <c r="Z786" s="12"/>
     </row>
-    <row r="787" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -50448,7 +50451,7 @@
       <c r="Y787" s="12"/>
       <c r="Z787" s="12"/>
     </row>
-    <row r="788" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -50476,7 +50479,7 @@
       <c r="Y788" s="12"/>
       <c r="Z788" s="12"/>
     </row>
-    <row r="789" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -50504,7 +50507,7 @@
       <c r="Y789" s="12"/>
       <c r="Z789" s="12"/>
     </row>
-    <row r="790" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -50532,7 +50535,7 @@
       <c r="Y790" s="12"/>
       <c r="Z790" s="12"/>
     </row>
-    <row r="791" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -50560,7 +50563,7 @@
       <c r="Y791" s="12"/>
       <c r="Z791" s="12"/>
     </row>
-    <row r="792" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A792" s="12"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
@@ -50588,7 +50591,7 @@
       <c r="Y792" s="12"/>
       <c r="Z792" s="12"/>
     </row>
-    <row r="793" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A793" s="12"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
@@ -50616,7 +50619,7 @@
       <c r="Y793" s="12"/>
       <c r="Z793" s="12"/>
     </row>
-    <row r="794" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A794" s="12"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
@@ -50644,7 +50647,7 @@
       <c r="Y794" s="12"/>
       <c r="Z794" s="12"/>
     </row>
-    <row r="795" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A795" s="12"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
@@ -50672,7 +50675,7 @@
       <c r="Y795" s="12"/>
       <c r="Z795" s="12"/>
     </row>
-    <row r="796" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A796" s="12"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
@@ -50700,7 +50703,7 @@
       <c r="Y796" s="12"/>
       <c r="Z796" s="12"/>
     </row>
-    <row r="797" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A797" s="12"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
@@ -50728,7 +50731,7 @@
       <c r="Y797" s="12"/>
       <c r="Z797" s="12"/>
     </row>
-    <row r="798" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A798" s="12"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
@@ -50756,7 +50759,7 @@
       <c r="Y798" s="12"/>
       <c r="Z798" s="12"/>
     </row>
-    <row r="799" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A799" s="12"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
@@ -50784,7 +50787,7 @@
       <c r="Y799" s="12"/>
       <c r="Z799" s="12"/>
     </row>
-    <row r="800" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A800" s="12"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
@@ -50812,7 +50815,7 @@
       <c r="Y800" s="12"/>
       <c r="Z800" s="12"/>
     </row>
-    <row r="801" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A801" s="12"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
@@ -50840,7 +50843,7 @@
       <c r="Y801" s="12"/>
       <c r="Z801" s="12"/>
     </row>
-    <row r="802" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A802" s="12"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
@@ -50868,7 +50871,7 @@
       <c r="Y802" s="12"/>
       <c r="Z802" s="12"/>
     </row>
-    <row r="803" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A803" s="12"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
@@ -50896,7 +50899,7 @@
       <c r="Y803" s="12"/>
       <c r="Z803" s="12"/>
     </row>
-    <row r="804" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A804" s="12"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
@@ -50924,7 +50927,7 @@
       <c r="Y804" s="12"/>
       <c r="Z804" s="12"/>
     </row>
-    <row r="805" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A805" s="12"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
@@ -50952,7 +50955,7 @@
       <c r="Y805" s="12"/>
       <c r="Z805" s="12"/>
     </row>
-    <row r="806" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A806" s="12"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
@@ -50980,7 +50983,7 @@
       <c r="Y806" s="12"/>
       <c r="Z806" s="12"/>
     </row>
-    <row r="807" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A807" s="12"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
@@ -51008,7 +51011,7 @@
       <c r="Y807" s="12"/>
       <c r="Z807" s="12"/>
     </row>
-    <row r="808" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A808" s="12"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
@@ -51036,7 +51039,7 @@
       <c r="Y808" s="12"/>
       <c r="Z808" s="12"/>
     </row>
-    <row r="809" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A809" s="12"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
@@ -51064,7 +51067,7 @@
       <c r="Y809" s="12"/>
       <c r="Z809" s="12"/>
     </row>
-    <row r="810" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A810" s="12"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
@@ -51092,7 +51095,7 @@
       <c r="Y810" s="12"/>
       <c r="Z810" s="12"/>
     </row>
-    <row r="811" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A811" s="12"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
@@ -51120,7 +51123,7 @@
       <c r="Y811" s="12"/>
       <c r="Z811" s="12"/>
     </row>
-    <row r="812" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A812" s="12"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
@@ -51148,7 +51151,7 @@
       <c r="Y812" s="12"/>
       <c r="Z812" s="12"/>
     </row>
-    <row r="813" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A813" s="12"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
@@ -51176,7 +51179,7 @@
       <c r="Y813" s="12"/>
       <c r="Z813" s="12"/>
     </row>
-    <row r="814" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A814" s="12"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
@@ -51204,7 +51207,7 @@
       <c r="Y814" s="12"/>
       <c r="Z814" s="12"/>
     </row>
-    <row r="815" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A815" s="12"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
@@ -51232,7 +51235,7 @@
       <c r="Y815" s="12"/>
       <c r="Z815" s="12"/>
     </row>
-    <row r="816" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A816" s="12"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
@@ -51260,7 +51263,7 @@
       <c r="Y816" s="12"/>
       <c r="Z816" s="12"/>
     </row>
-    <row r="817" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A817" s="12"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
@@ -51288,7 +51291,7 @@
       <c r="Y817" s="12"/>
       <c r="Z817" s="12"/>
     </row>
-    <row r="818" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A818" s="12"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
@@ -51316,7 +51319,7 @@
       <c r="Y818" s="12"/>
       <c r="Z818" s="12"/>
     </row>
-    <row r="819" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A819" s="12"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
@@ -51344,7 +51347,7 @@
       <c r="Y819" s="12"/>
       <c r="Z819" s="12"/>
     </row>
-    <row r="820" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A820" s="12"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
@@ -51372,7 +51375,7 @@
       <c r="Y820" s="12"/>
       <c r="Z820" s="12"/>
     </row>
-    <row r="821" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A821" s="12"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
@@ -51400,7 +51403,7 @@
       <c r="Y821" s="12"/>
       <c r="Z821" s="12"/>
     </row>
-    <row r="822" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A822" s="12"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
@@ -51428,7 +51431,7 @@
       <c r="Y822" s="12"/>
       <c r="Z822" s="12"/>
     </row>
-    <row r="823" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A823" s="12"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
@@ -51456,7 +51459,7 @@
       <c r="Y823" s="12"/>
       <c r="Z823" s="12"/>
     </row>
-    <row r="824" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A824" s="12"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
@@ -51484,7 +51487,7 @@
       <c r="Y824" s="12"/>
       <c r="Z824" s="12"/>
     </row>
-    <row r="825" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A825" s="12"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
@@ -51512,7 +51515,7 @@
       <c r="Y825" s="12"/>
       <c r="Z825" s="12"/>
     </row>
-    <row r="826" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A826" s="12"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
@@ -51540,7 +51543,7 @@
       <c r="Y826" s="12"/>
       <c r="Z826" s="12"/>
     </row>
-    <row r="827" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A827" s="12"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
@@ -51568,7 +51571,7 @@
       <c r="Y827" s="12"/>
       <c r="Z827" s="12"/>
     </row>
-    <row r="828" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A828" s="12"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
@@ -51596,7 +51599,7 @@
       <c r="Y828" s="12"/>
       <c r="Z828" s="12"/>
     </row>
-    <row r="829" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A829" s="12"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
@@ -51624,7 +51627,7 @@
       <c r="Y829" s="12"/>
       <c r="Z829" s="12"/>
     </row>
-    <row r="830" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A830" s="12"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
@@ -51652,7 +51655,7 @@
       <c r="Y830" s="12"/>
       <c r="Z830" s="12"/>
     </row>
-    <row r="831" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A831" s="12"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
@@ -51680,7 +51683,7 @@
       <c r="Y831" s="12"/>
       <c r="Z831" s="12"/>
     </row>
-    <row r="832" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A832" s="12"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
@@ -51708,7 +51711,7 @@
       <c r="Y832" s="12"/>
       <c r="Z832" s="12"/>
     </row>
-    <row r="833" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A833" s="12"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
@@ -51736,7 +51739,7 @@
       <c r="Y833" s="12"/>
       <c r="Z833" s="12"/>
     </row>
-    <row r="834" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A834" s="12"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
@@ -51764,7 +51767,7 @@
       <c r="Y834" s="12"/>
       <c r="Z834" s="12"/>
     </row>
-    <row r="835" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A835" s="12"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
@@ -51792,7 +51795,7 @@
       <c r="Y835" s="12"/>
       <c r="Z835" s="12"/>
     </row>
-    <row r="836" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A836" s="12"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
@@ -51820,7 +51823,7 @@
       <c r="Y836" s="12"/>
       <c r="Z836" s="12"/>
     </row>
-    <row r="837" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A837" s="12"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
@@ -51848,7 +51851,7 @@
       <c r="Y837" s="12"/>
       <c r="Z837" s="12"/>
     </row>
-    <row r="838" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A838" s="12"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
@@ -51876,7 +51879,7 @@
       <c r="Y838" s="12"/>
       <c r="Z838" s="12"/>
     </row>
-    <row r="839" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A839" s="12"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
@@ -51904,7 +51907,7 @@
       <c r="Y839" s="12"/>
       <c r="Z839" s="12"/>
     </row>
-    <row r="840" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A840" s="12"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
@@ -51932,7 +51935,7 @@
       <c r="Y840" s="12"/>
       <c r="Z840" s="12"/>
     </row>
-    <row r="841" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A841" s="12"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
@@ -51960,7 +51963,7 @@
       <c r="Y841" s="12"/>
       <c r="Z841" s="12"/>
     </row>
-    <row r="842" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A842" s="12"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
@@ -51988,7 +51991,7 @@
       <c r="Y842" s="12"/>
       <c r="Z842" s="12"/>
     </row>
-    <row r="843" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A843" s="12"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
@@ -52016,7 +52019,7 @@
       <c r="Y843" s="12"/>
       <c r="Z843" s="12"/>
     </row>
-    <row r="844" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A844" s="12"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
@@ -52044,7 +52047,7 @@
       <c r="Y844" s="12"/>
       <c r="Z844" s="12"/>
     </row>
-    <row r="845" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A845" s="12"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
@@ -52072,7 +52075,7 @@
       <c r="Y845" s="12"/>
       <c r="Z845" s="12"/>
     </row>
-    <row r="846" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A846" s="12"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
@@ -52100,7 +52103,7 @@
       <c r="Y846" s="12"/>
       <c r="Z846" s="12"/>
     </row>
-    <row r="847" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A847" s="12"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
@@ -52128,7 +52131,7 @@
       <c r="Y847" s="12"/>
       <c r="Z847" s="12"/>
     </row>
-    <row r="848" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A848" s="12"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
@@ -52156,7 +52159,7 @@
       <c r="Y848" s="12"/>
       <c r="Z848" s="12"/>
     </row>
-    <row r="849" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A849" s="12"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
@@ -52184,7 +52187,7 @@
       <c r="Y849" s="12"/>
       <c r="Z849" s="12"/>
     </row>
-    <row r="850" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A850" s="12"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
@@ -52212,7 +52215,7 @@
       <c r="Y850" s="12"/>
       <c r="Z850" s="12"/>
     </row>
-    <row r="851" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A851" s="12"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
@@ -52240,7 +52243,7 @@
       <c r="Y851" s="12"/>
       <c r="Z851" s="12"/>
     </row>
-    <row r="852" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A852" s="12"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
@@ -52268,7 +52271,7 @@
       <c r="Y852" s="12"/>
       <c r="Z852" s="12"/>
     </row>
-    <row r="853" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A853" s="12"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
@@ -52296,7 +52299,7 @@
       <c r="Y853" s="12"/>
       <c r="Z853" s="12"/>
     </row>
-    <row r="854" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A854" s="12"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
@@ -52324,7 +52327,7 @@
       <c r="Y854" s="12"/>
       <c r="Z854" s="12"/>
     </row>
-    <row r="855" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A855" s="12"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
@@ -52352,7 +52355,7 @@
       <c r="Y855" s="12"/>
       <c r="Z855" s="12"/>
     </row>
-    <row r="856" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A856" s="12"/>
       <c r="B856" s="12"/>
       <c r="C856" s="12"/>
@@ -52380,7 +52383,7 @@
       <c r="Y856" s="12"/>
       <c r="Z856" s="12"/>
     </row>
-    <row r="857" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A857" s="12"/>
       <c r="B857" s="12"/>
       <c r="C857" s="12"/>
@@ -52408,7 +52411,7 @@
       <c r="Y857" s="12"/>
       <c r="Z857" s="12"/>
     </row>
-    <row r="858" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A858" s="12"/>
       <c r="B858" s="12"/>
       <c r="C858" s="12"/>
@@ -52436,7 +52439,7 @@
       <c r="Y858" s="12"/>
       <c r="Z858" s="12"/>
     </row>
-    <row r="859" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A859" s="12"/>
       <c r="B859" s="12"/>
       <c r="C859" s="12"/>
@@ -52464,7 +52467,7 @@
       <c r="Y859" s="12"/>
       <c r="Z859" s="12"/>
     </row>
-    <row r="860" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A860" s="12"/>
       <c r="B860" s="12"/>
       <c r="C860" s="12"/>
@@ -52492,7 +52495,7 @@
       <c r="Y860" s="12"/>
       <c r="Z860" s="12"/>
     </row>
-    <row r="861" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A861" s="12"/>
       <c r="B861" s="12"/>
       <c r="C861" s="12"/>
@@ -52520,7 +52523,7 @@
       <c r="Y861" s="12"/>
       <c r="Z861" s="12"/>
     </row>
-    <row r="862" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A862" s="12"/>
       <c r="B862" s="12"/>
       <c r="C862" s="12"/>
@@ -52548,7 +52551,7 @@
       <c r="Y862" s="12"/>
       <c r="Z862" s="12"/>
     </row>
-    <row r="863" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A863" s="12"/>
       <c r="B863" s="12"/>
       <c r="C863" s="12"/>
@@ -52576,7 +52579,7 @@
       <c r="Y863" s="12"/>
       <c r="Z863" s="12"/>
     </row>
-    <row r="864" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A864" s="12"/>
       <c r="B864" s="12"/>
       <c r="C864" s="12"/>
@@ -52604,7 +52607,7 @@
       <c r="Y864" s="12"/>
       <c r="Z864" s="12"/>
     </row>
-    <row r="865" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A865" s="12"/>
       <c r="B865" s="12"/>
       <c r="C865" s="12"/>
@@ -52632,7 +52635,7 @@
       <c r="Y865" s="12"/>
       <c r="Z865" s="12"/>
     </row>
-    <row r="866" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A866" s="12"/>
       <c r="B866" s="12"/>
       <c r="C866" s="12"/>
@@ -52660,7 +52663,7 @@
       <c r="Y866" s="12"/>
       <c r="Z866" s="12"/>
     </row>
-    <row r="867" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A867" s="12"/>
       <c r="B867" s="12"/>
       <c r="C867" s="12"/>
@@ -52688,7 +52691,7 @@
       <c r="Y867" s="12"/>
       <c r="Z867" s="12"/>
     </row>
-    <row r="868" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A868" s="12"/>
       <c r="B868" s="12"/>
       <c r="C868" s="12"/>
@@ -52716,7 +52719,7 @@
       <c r="Y868" s="12"/>
       <c r="Z868" s="12"/>
     </row>
-    <row r="869" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A869" s="12"/>
       <c r="B869" s="12"/>
       <c r="C869" s="12"/>
@@ -52744,7 +52747,7 @@
       <c r="Y869" s="12"/>
       <c r="Z869" s="12"/>
     </row>
-    <row r="870" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A870" s="12"/>
       <c r="B870" s="12"/>
       <c r="C870" s="12"/>
@@ -52772,7 +52775,7 @@
       <c r="Y870" s="12"/>
       <c r="Z870" s="12"/>
     </row>
-    <row r="871" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A871" s="12"/>
       <c r="B871" s="12"/>
       <c r="C871" s="12"/>
@@ -52800,7 +52803,7 @@
       <c r="Y871" s="12"/>
       <c r="Z871" s="12"/>
     </row>
-    <row r="872" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A872" s="12"/>
       <c r="B872" s="12"/>
       <c r="C872" s="12"/>
@@ -52828,7 +52831,7 @@
       <c r="Y872" s="12"/>
       <c r="Z872" s="12"/>
     </row>
-    <row r="873" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A873" s="12"/>
       <c r="B873" s="12"/>
       <c r="C873" s="12"/>
@@ -52856,7 +52859,7 @@
       <c r="Y873" s="12"/>
       <c r="Z873" s="12"/>
     </row>
-    <row r="874" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A874" s="12"/>
       <c r="B874" s="12"/>
       <c r="C874" s="12"/>
@@ -52884,7 +52887,7 @@
       <c r="Y874" s="12"/>
       <c r="Z874" s="12"/>
     </row>
-    <row r="875" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A875" s="12"/>
       <c r="B875" s="12"/>
       <c r="C875" s="12"/>
@@ -52912,7 +52915,7 @@
       <c r="Y875" s="12"/>
       <c r="Z875" s="12"/>
     </row>
-    <row r="876" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A876" s="12"/>
       <c r="B876" s="12"/>
       <c r="C876" s="12"/>
@@ -52940,7 +52943,7 @@
       <c r="Y876" s="12"/>
       <c r="Z876" s="12"/>
     </row>
-    <row r="877" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A877" s="12"/>
       <c r="B877" s="12"/>
       <c r="C877" s="12"/>
@@ -52968,7 +52971,7 @@
       <c r="Y877" s="12"/>
       <c r="Z877" s="12"/>
     </row>
-    <row r="878" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A878" s="12"/>
       <c r="B878" s="12"/>
       <c r="C878" s="12"/>
@@ -52996,7 +52999,7 @@
       <c r="Y878" s="12"/>
       <c r="Z878" s="12"/>
     </row>
-    <row r="879" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A879" s="12"/>
       <c r="B879" s="12"/>
       <c r="C879" s="12"/>
@@ -53024,7 +53027,7 @@
       <c r="Y879" s="12"/>
       <c r="Z879" s="12"/>
     </row>
-    <row r="880" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A880" s="12"/>
       <c r="B880" s="12"/>
       <c r="C880" s="12"/>
@@ -53052,7 +53055,7 @@
       <c r="Y880" s="12"/>
       <c r="Z880" s="12"/>
     </row>
-    <row r="881" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A881" s="12"/>
       <c r="B881" s="12"/>
       <c r="C881" s="12"/>
@@ -53080,7 +53083,7 @@
       <c r="Y881" s="12"/>
       <c r="Z881" s="12"/>
     </row>
-    <row r="882" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A882" s="12"/>
       <c r="B882" s="12"/>
       <c r="C882" s="12"/>
@@ -53108,7 +53111,7 @@
       <c r="Y882" s="12"/>
       <c r="Z882" s="12"/>
     </row>
-    <row r="883" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A883" s="12"/>
       <c r="B883" s="12"/>
       <c r="C883" s="12"/>
@@ -53136,7 +53139,7 @@
       <c r="Y883" s="12"/>
       <c r="Z883" s="12"/>
     </row>
-    <row r="884" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A884" s="12"/>
       <c r="B884" s="12"/>
       <c r="C884" s="12"/>
@@ -53164,7 +53167,7 @@
       <c r="Y884" s="12"/>
       <c r="Z884" s="12"/>
     </row>
-    <row r="885" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A885" s="12"/>
       <c r="B885" s="12"/>
       <c r="C885" s="12"/>
@@ -53192,7 +53195,7 @@
       <c r="Y885" s="12"/>
       <c r="Z885" s="12"/>
     </row>
-    <row r="886" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A886" s="12"/>
       <c r="B886" s="12"/>
       <c r="C886" s="12"/>
@@ -53220,7 +53223,7 @@
       <c r="Y886" s="12"/>
       <c r="Z886" s="12"/>
     </row>
-    <row r="887" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A887" s="12"/>
       <c r="B887" s="12"/>
       <c r="C887" s="12"/>
@@ -53248,7 +53251,7 @@
       <c r="Y887" s="12"/>
       <c r="Z887" s="12"/>
     </row>
-    <row r="888" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A888" s="12"/>
       <c r="B888" s="12"/>
       <c r="C888" s="12"/>
@@ -53276,7 +53279,7 @@
       <c r="Y888" s="12"/>
       <c r="Z888" s="12"/>
     </row>
-    <row r="889" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A889" s="12"/>
       <c r="B889" s="12"/>
       <c r="C889" s="12"/>
@@ -53304,7 +53307,7 @@
       <c r="Y889" s="12"/>
       <c r="Z889" s="12"/>
     </row>
-    <row r="890" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A890" s="12"/>
       <c r="B890" s="12"/>
       <c r="C890" s="12"/>
@@ -53332,7 +53335,7 @@
       <c r="Y890" s="12"/>
       <c r="Z890" s="12"/>
     </row>
-    <row r="891" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A891" s="12"/>
       <c r="B891" s="12"/>
       <c r="C891" s="12"/>
@@ -53360,7 +53363,7 @@
       <c r="Y891" s="12"/>
       <c r="Z891" s="12"/>
     </row>
-    <row r="892" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A892" s="12"/>
       <c r="B892" s="12"/>
       <c r="C892" s="12"/>
@@ -53388,7 +53391,7 @@
       <c r="Y892" s="12"/>
       <c r="Z892" s="12"/>
     </row>
-    <row r="893" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A893" s="12"/>
       <c r="B893" s="12"/>
       <c r="C893" s="12"/>
@@ -53416,7 +53419,7 @@
       <c r="Y893" s="12"/>
       <c r="Z893" s="12"/>
     </row>
-    <row r="894" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A894" s="12"/>
       <c r="B894" s="12"/>
       <c r="C894" s="12"/>
@@ -53444,7 +53447,7 @@
       <c r="Y894" s="12"/>
       <c r="Z894" s="12"/>
     </row>
-    <row r="895" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A895" s="12"/>
       <c r="B895" s="12"/>
       <c r="C895" s="12"/>
@@ -53472,7 +53475,7 @@
       <c r="Y895" s="12"/>
       <c r="Z895" s="12"/>
     </row>
-    <row r="896" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A896" s="12"/>
       <c r="B896" s="12"/>
       <c r="C896" s="12"/>
@@ -53500,7 +53503,7 @@
       <c r="Y896" s="12"/>
       <c r="Z896" s="12"/>
     </row>
-    <row r="897" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A897" s="12"/>
       <c r="B897" s="12"/>
       <c r="C897" s="12"/>
@@ -53528,7 +53531,7 @@
       <c r="Y897" s="12"/>
       <c r="Z897" s="12"/>
     </row>
-    <row r="898" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A898" s="12"/>
       <c r="B898" s="12"/>
       <c r="C898" s="12"/>
@@ -53556,7 +53559,7 @@
       <c r="Y898" s="12"/>
       <c r="Z898" s="12"/>
     </row>
-    <row r="899" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A899" s="12"/>
       <c r="B899" s="12"/>
       <c r="C899" s="12"/>
@@ -53584,7 +53587,7 @@
       <c r="Y899" s="12"/>
       <c r="Z899" s="12"/>
     </row>
-    <row r="900" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A900" s="12"/>
       <c r="B900" s="12"/>
       <c r="C900" s="12"/>
@@ -53612,7 +53615,7 @@
       <c r="Y900" s="12"/>
       <c r="Z900" s="12"/>
     </row>
-    <row r="901" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A901" s="12"/>
       <c r="B901" s="12"/>
       <c r="C901" s="12"/>
@@ -53640,7 +53643,7 @@
       <c r="Y901" s="12"/>
       <c r="Z901" s="12"/>
     </row>
-    <row r="902" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A902" s="12"/>
       <c r="B902" s="12"/>
       <c r="C902" s="12"/>
@@ -53668,7 +53671,7 @@
       <c r="Y902" s="12"/>
       <c r="Z902" s="12"/>
     </row>
-    <row r="903" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A903" s="12"/>
       <c r="B903" s="12"/>
       <c r="C903" s="12"/>
@@ -53696,7 +53699,7 @@
       <c r="Y903" s="12"/>
       <c r="Z903" s="12"/>
     </row>
-    <row r="904" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A904" s="12"/>
       <c r="B904" s="12"/>
       <c r="C904" s="12"/>
@@ -53724,7 +53727,7 @@
       <c r="Y904" s="12"/>
       <c r="Z904" s="12"/>
     </row>
-    <row r="905" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A905" s="12"/>
       <c r="B905" s="12"/>
       <c r="C905" s="12"/>
@@ -53752,7 +53755,7 @@
       <c r="Y905" s="12"/>
       <c r="Z905" s="12"/>
     </row>
-    <row r="906" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A906" s="12"/>
       <c r="B906" s="12"/>
       <c r="C906" s="12"/>
@@ -53780,7 +53783,7 @@
       <c r="Y906" s="12"/>
       <c r="Z906" s="12"/>
     </row>
-    <row r="907" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A907" s="12"/>
       <c r="B907" s="12"/>
       <c r="C907" s="12"/>
@@ -53808,7 +53811,7 @@
       <c r="Y907" s="12"/>
       <c r="Z907" s="12"/>
     </row>
-    <row r="908" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A908" s="12"/>
       <c r="B908" s="12"/>
       <c r="C908" s="12"/>
@@ -53836,7 +53839,7 @@
       <c r="Y908" s="12"/>
       <c r="Z908" s="12"/>
     </row>
-    <row r="909" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A909" s="12"/>
       <c r="B909" s="12"/>
       <c r="C909" s="12"/>
@@ -53864,7 +53867,7 @@
       <c r="Y909" s="12"/>
       <c r="Z909" s="12"/>
     </row>
-    <row r="910" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A910" s="12"/>
       <c r="B910" s="12"/>
       <c r="C910" s="12"/>
@@ -53892,7 +53895,7 @@
       <c r="Y910" s="12"/>
       <c r="Z910" s="12"/>
     </row>
-    <row r="911" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A911" s="12"/>
       <c r="B911" s="12"/>
       <c r="C911" s="12"/>
@@ -53920,7 +53923,7 @@
       <c r="Y911" s="12"/>
       <c r="Z911" s="12"/>
     </row>
-    <row r="912" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A912" s="12"/>
       <c r="B912" s="12"/>
       <c r="C912" s="12"/>
@@ -53948,7 +53951,7 @@
       <c r="Y912" s="12"/>
       <c r="Z912" s="12"/>
     </row>
-    <row r="913" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A913" s="12"/>
       <c r="B913" s="12"/>
       <c r="C913" s="12"/>
@@ -53976,7 +53979,7 @@
       <c r="Y913" s="12"/>
       <c r="Z913" s="12"/>
     </row>
-    <row r="914" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A914" s="12"/>
       <c r="B914" s="12"/>
       <c r="C914" s="12"/>
@@ -54004,7 +54007,7 @@
       <c r="Y914" s="12"/>
       <c r="Z914" s="12"/>
     </row>
-    <row r="915" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A915" s="12"/>
       <c r="B915" s="12"/>
       <c r="C915" s="12"/>
@@ -54032,7 +54035,7 @@
       <c r="Y915" s="12"/>
       <c r="Z915" s="12"/>
     </row>
-    <row r="916" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A916" s="12"/>
       <c r="B916" s="12"/>
       <c r="C916" s="12"/>
@@ -54060,7 +54063,7 @@
       <c r="Y916" s="12"/>
       <c r="Z916" s="12"/>
     </row>
-    <row r="917" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A917" s="12"/>
       <c r="B917" s="12"/>
       <c r="C917" s="12"/>
@@ -54088,7 +54091,7 @@
       <c r="Y917" s="12"/>
       <c r="Z917" s="12"/>
     </row>
-    <row r="918" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A918" s="12"/>
       <c r="B918" s="12"/>
       <c r="C918" s="12"/>
@@ -54116,7 +54119,7 @@
       <c r="Y918" s="12"/>
       <c r="Z918" s="12"/>
     </row>
-    <row r="919" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A919" s="12"/>
       <c r="B919" s="12"/>
       <c r="C919" s="12"/>
@@ -54144,7 +54147,7 @@
       <c r="Y919" s="12"/>
       <c r="Z919" s="12"/>
     </row>
-    <row r="920" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A920" s="12"/>
       <c r="B920" s="12"/>
       <c r="C920" s="12"/>
@@ -54172,7 +54175,7 @@
       <c r="Y920" s="12"/>
       <c r="Z920" s="12"/>
     </row>
-    <row r="921" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A921" s="12"/>
       <c r="B921" s="12"/>
       <c r="C921" s="12"/>
@@ -54200,7 +54203,7 @@
       <c r="Y921" s="12"/>
       <c r="Z921" s="12"/>
     </row>
-    <row r="922" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A922" s="12"/>
       <c r="B922" s="12"/>
       <c r="C922" s="12"/>
@@ -54228,7 +54231,7 @@
       <c r="Y922" s="12"/>
       <c r="Z922" s="12"/>
     </row>
-    <row r="923" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A923" s="12"/>
       <c r="B923" s="12"/>
       <c r="C923" s="12"/>
@@ -54256,7 +54259,7 @@
       <c r="Y923" s="12"/>
       <c r="Z923" s="12"/>
     </row>
-    <row r="924" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A924" s="12"/>
       <c r="B924" s="12"/>
       <c r="C924" s="12"/>
@@ -54284,7 +54287,7 @@
       <c r="Y924" s="12"/>
       <c r="Z924" s="12"/>
     </row>
-    <row r="925" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A925" s="12"/>
       <c r="B925" s="12"/>
       <c r="C925" s="12"/>
@@ -54312,7 +54315,7 @@
       <c r="Y925" s="12"/>
       <c r="Z925" s="12"/>
     </row>
-    <row r="926" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A926" s="12"/>
       <c r="B926" s="12"/>
       <c r="C926" s="12"/>
@@ -54340,7 +54343,7 @@
       <c r="Y926" s="12"/>
       <c r="Z926" s="12"/>
     </row>
-    <row r="927" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A927" s="12"/>
       <c r="B927" s="12"/>
       <c r="C927" s="12"/>
@@ -54368,7 +54371,7 @@
       <c r="Y927" s="12"/>
       <c r="Z927" s="12"/>
     </row>
-    <row r="928" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A928" s="12"/>
       <c r="B928" s="12"/>
       <c r="C928" s="12"/>
@@ -54396,7 +54399,7 @@
       <c r="Y928" s="12"/>
       <c r="Z928" s="12"/>
     </row>
-    <row r="929" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A929" s="12"/>
       <c r="B929" s="12"/>
       <c r="C929" s="12"/>
@@ -54424,7 +54427,7 @@
       <c r="Y929" s="12"/>
       <c r="Z929" s="12"/>
     </row>
-    <row r="930" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A930" s="12"/>
       <c r="B930" s="12"/>
       <c r="C930" s="12"/>
@@ -54452,7 +54455,7 @@
       <c r="Y930" s="12"/>
       <c r="Z930" s="12"/>
     </row>
-    <row r="931" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A931" s="12"/>
       <c r="B931" s="12"/>
       <c r="C931" s="12"/>
@@ -54480,7 +54483,7 @@
       <c r="Y931" s="12"/>
       <c r="Z931" s="12"/>
     </row>
-    <row r="932" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A932" s="12"/>
       <c r="B932" s="12"/>
       <c r="C932" s="12"/>
@@ -54508,7 +54511,7 @@
       <c r="Y932" s="12"/>
       <c r="Z932" s="12"/>
     </row>
-    <row r="933" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A933" s="12"/>
       <c r="B933" s="12"/>
       <c r="C933" s="12"/>
@@ -54536,7 +54539,7 @@
       <c r="Y933" s="12"/>
       <c r="Z933" s="12"/>
     </row>
-    <row r="934" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A934" s="12"/>
       <c r="B934" s="12"/>
       <c r="C934" s="12"/>
@@ -54564,7 +54567,7 @@
       <c r="Y934" s="12"/>
       <c r="Z934" s="12"/>
     </row>
-    <row r="935" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A935" s="12"/>
       <c r="B935" s="12"/>
       <c r="C935" s="12"/>
@@ -54592,7 +54595,7 @@
       <c r="Y935" s="12"/>
       <c r="Z935" s="12"/>
     </row>
-    <row r="936" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A936" s="12"/>
       <c r="B936" s="12"/>
       <c r="C936" s="12"/>
@@ -54620,7 +54623,7 @@
       <c r="Y936" s="12"/>
       <c r="Z936" s="12"/>
     </row>
-    <row r="937" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A937" s="12"/>
       <c r="B937" s="12"/>
       <c r="C937" s="12"/>
@@ -54648,7 +54651,7 @@
       <c r="Y937" s="12"/>
       <c r="Z937" s="12"/>
     </row>
-    <row r="938" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A938" s="12"/>
       <c r="B938" s="12"/>
       <c r="C938" s="12"/>
@@ -54676,7 +54679,7 @@
       <c r="Y938" s="12"/>
       <c r="Z938" s="12"/>
     </row>
-    <row r="939" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A939" s="12"/>
       <c r="B939" s="12"/>
       <c r="C939" s="12"/>
@@ -54704,7 +54707,7 @@
       <c r="Y939" s="12"/>
       <c r="Z939" s="12"/>
     </row>
-    <row r="940" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A940" s="12"/>
       <c r="B940" s="12"/>
       <c r="C940" s="12"/>
@@ -54732,7 +54735,7 @@
       <c r="Y940" s="12"/>
       <c r="Z940" s="12"/>
     </row>
-    <row r="941" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A941" s="12"/>
       <c r="B941" s="12"/>
       <c r="C941" s="12"/>
@@ -54760,7 +54763,7 @@
       <c r="Y941" s="12"/>
       <c r="Z941" s="12"/>
     </row>
-    <row r="942" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A942" s="12"/>
       <c r="B942" s="12"/>
       <c r="C942" s="12"/>
@@ -54788,7 +54791,7 @@
       <c r="Y942" s="12"/>
       <c r="Z942" s="12"/>
     </row>
-    <row r="943" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A943" s="12"/>
       <c r="B943" s="12"/>
       <c r="C943" s="12"/>
@@ -54816,7 +54819,7 @@
       <c r="Y943" s="12"/>
       <c r="Z943" s="12"/>
     </row>
-    <row r="944" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A944" s="12"/>
       <c r="B944" s="12"/>
       <c r="C944" s="12"/>
@@ -54844,7 +54847,7 @@
       <c r="Y944" s="12"/>
       <c r="Z944" s="12"/>
     </row>
-    <row r="945" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A945" s="12"/>
       <c r="B945" s="12"/>
       <c r="C945" s="12"/>
@@ -54872,7 +54875,7 @@
       <c r="Y945" s="12"/>
       <c r="Z945" s="12"/>
     </row>
-    <row r="946" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A946" s="12"/>
       <c r="B946" s="12"/>
       <c r="C946" s="12"/>
@@ -54900,7 +54903,7 @@
       <c r="Y946" s="12"/>
       <c r="Z946" s="12"/>
     </row>
-    <row r="947" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A947" s="12"/>
       <c r="B947" s="12"/>
       <c r="C947" s="12"/>
@@ -54928,7 +54931,7 @@
       <c r="Y947" s="12"/>
       <c r="Z947" s="12"/>
     </row>
-    <row r="948" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A948" s="12"/>
       <c r="B948" s="12"/>
       <c r="C948" s="12"/>
@@ -54956,7 +54959,7 @@
       <c r="Y948" s="12"/>
       <c r="Z948" s="12"/>
     </row>
-    <row r="949" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A949" s="12"/>
       <c r="B949" s="12"/>
       <c r="C949" s="12"/>
@@ -54984,7 +54987,7 @@
       <c r="Y949" s="12"/>
       <c r="Z949" s="12"/>
     </row>
-    <row r="950" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A950" s="12"/>
       <c r="B950" s="12"/>
       <c r="C950" s="12"/>
@@ -55012,7 +55015,7 @@
       <c r="Y950" s="12"/>
       <c r="Z950" s="12"/>
     </row>
-    <row r="951" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A951" s="12"/>
       <c r="B951" s="12"/>
       <c r="C951" s="12"/>
@@ -55040,7 +55043,7 @@
       <c r="Y951" s="12"/>
       <c r="Z951" s="12"/>
     </row>
-    <row r="952" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A952" s="12"/>
       <c r="B952" s="12"/>
       <c r="C952" s="12"/>
@@ -55068,7 +55071,7 @@
       <c r="Y952" s="12"/>
       <c r="Z952" s="12"/>
     </row>
-    <row r="953" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A953" s="12"/>
       <c r="B953" s="12"/>
       <c r="C953" s="12"/>
@@ -55096,7 +55099,7 @@
       <c r="Y953" s="12"/>
       <c r="Z953" s="12"/>
     </row>
-    <row r="954" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A954" s="12"/>
       <c r="B954" s="12"/>
       <c r="C954" s="12"/>
@@ -55124,7 +55127,7 @@
       <c r="Y954" s="12"/>
       <c r="Z954" s="12"/>
     </row>
-    <row r="955" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A955" s="12"/>
       <c r="B955" s="12"/>
       <c r="C955" s="12"/>
@@ -55152,7 +55155,7 @@
       <c r="Y955" s="12"/>
       <c r="Z955" s="12"/>
     </row>
-    <row r="956" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A956" s="12"/>
       <c r="B956" s="12"/>
       <c r="C956" s="12"/>
@@ -55180,7 +55183,7 @@
       <c r="Y956" s="12"/>
       <c r="Z956" s="12"/>
     </row>
-    <row r="957" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A957" s="12"/>
       <c r="B957" s="12"/>
       <c r="C957" s="12"/>
@@ -55208,7 +55211,7 @@
       <c r="Y957" s="12"/>
       <c r="Z957" s="12"/>
     </row>
-    <row r="958" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A958" s="12"/>
       <c r="B958" s="12"/>
       <c r="C958" s="12"/>
@@ -55236,7 +55239,7 @@
       <c r="Y958" s="12"/>
       <c r="Z958" s="12"/>
     </row>
-    <row r="959" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A959" s="12"/>
       <c r="B959" s="12"/>
       <c r="C959" s="12"/>
@@ -55264,7 +55267,7 @@
       <c r="Y959" s="12"/>
       <c r="Z959" s="12"/>
     </row>
-    <row r="960" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A960" s="12"/>
       <c r="B960" s="12"/>
       <c r="C960" s="12"/>
@@ -55292,7 +55295,7 @@
       <c r="Y960" s="12"/>
       <c r="Z960" s="12"/>
     </row>
-    <row r="961" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A961" s="12"/>
       <c r="B961" s="12"/>
       <c r="C961" s="12"/>
@@ -55320,7 +55323,7 @@
       <c r="Y961" s="12"/>
       <c r="Z961" s="12"/>
     </row>
-    <row r="962" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A962" s="12"/>
       <c r="B962" s="12"/>
       <c r="C962" s="12"/>
@@ -55348,7 +55351,7 @@
       <c r="Y962" s="12"/>
       <c r="Z962" s="12"/>
     </row>
-    <row r="963" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A963" s="12"/>
       <c r="B963" s="12"/>
       <c r="C963" s="12"/>
@@ -55376,7 +55379,7 @@
       <c r="Y963" s="12"/>
       <c r="Z963" s="12"/>
     </row>
-    <row r="964" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A964" s="12"/>
       <c r="B964" s="12"/>
       <c r="C964" s="12"/>
@@ -55404,24 +55407,19 @@
       <c r="Y964" s="12"/>
       <c r="Z964" s="12"/>
     </row>
-    <row r="965" spans="1:26" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="966" spans="1:26" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="967" spans="1:26" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="968" spans="1:26" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="969" spans="1:26" ht="18" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mẫu_biên_bản_làm_việc_nhóm1.xlsx
+++ b/Mẫu_biên_bản_làm_việc_nhóm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTCSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F3569-FF45-4E93-8D36-B489F2F369A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB5A59-D7FF-4B33-8F66-0C0EABD03CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FD97A212-27C1-43AE-A978-E71B9FAE1963}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Làm đề cương cho đề tài</t>
-  </si>
-  <si>
-    <t>Thành viên tham dự - Participants :  Đinh Quốc Anh, Hoàng Minh Ánh, Nguyễn Thế Anh, Nguyễn Xuân Anh.Hi</t>
   </si>
 </sst>
 </file>
@@ -491,6 +488,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -561,14 +566,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -900,14 +897,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -930,14 +927,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -960,14 +957,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -990,14 +987,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1020,14 +1017,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1050,14 +1047,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1264,14 +1261,14 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1306,10 +1303,10 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1344,10 +1341,10 @@
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1382,10 +1379,10 @@
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1420,10 +1417,10 @@
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1446,22 +1443,22 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
+      <c r="A17" s="26">
         <v>4</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1484,12 +1481,12 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1512,12 +1509,12 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1540,14 +1537,14 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1762,14 +1759,14 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -28219,12 +28216,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A20:F20"/>
@@ -28237,6 +28228,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:F19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28247,7 +28244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A16F2E-359E-484A-BC3B-47812D1B245E}">
   <dimension ref="A1:Z964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
@@ -28262,14 +28259,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -28292,14 +28289,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -28322,14 +28319,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -28352,14 +28349,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -28382,14 +28379,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -28412,14 +28409,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>49</v>
+      <c r="A6" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -28626,14 +28623,14 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -28668,10 +28665,10 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -28706,8 +28703,8 @@
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -28730,14 +28727,14 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -28952,14 +28949,14 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -55409,17 +55406,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
